--- a/AXP.xlsx
+++ b/AXP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Software\Fintech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB732A-6770-4633-80B2-45F2CF6E2E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6D28C3-085A-4247-BC32-31F51E520737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="16710" windowHeight="15600" activeTab="1" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Fidel</author>
   </authors>
   <commentList>
-    <comment ref="X18" authorId="0" shapeId="0" xr:uid="{8F5B39B1-22A4-4BCA-A27C-BB44A46B03CA}">
+    <comment ref="AA18" authorId="0" shapeId="0" xr:uid="{8F5B39B1-22A4-4BCA-A27C-BB44A46B03CA}">
       <text>
         <r>
           <rPr>
@@ -407,8 +407,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0\x"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -487,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,16 +502,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,26 +519,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,13 +599,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -983,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D16F2-F68D-4A10-B67F-2BF1BEBF6716}">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,97 +1141,90 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="9">
         <v>7618</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="4">
         <f>+C26/$C$31</f>
         <v>0.48163368527533668</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="9">
         <v>3706</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="4">
         <f>+C27/$C$31</f>
         <v>0.23430486185749511</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="9">
         <v>2744</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="4">
         <f>+C28/$C$31</f>
         <v>0.17348422583296452</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="9">
         <v>1817</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="4">
         <f>+C29/$C$31</f>
         <v>0.11487639881140545</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="21">
         <v>-68</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="22">
         <f>+C30/$C$31</f>
         <v>-4.2991717772017449E-3</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="31"/>
-      <c r="C31" s="25">
+      <c r="C31" s="1">
         <f>+SUM(C26:C30)</f>
         <v>15817</v>
       </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1257,7 +1236,7 @@
         <v>8743</v>
       </c>
       <c r="D34" s="4">
-        <f>+C34/$C$42</f>
+        <f t="shared" ref="D34:D41" si="0">+C34/$C$42</f>
         <v>0.46178629905456081</v>
       </c>
     </row>
@@ -1269,19 +1248,19 @@
         <v>2333</v>
       </c>
       <c r="D35" s="4">
-        <f>+C35/$C$42</f>
+        <f t="shared" si="0"/>
         <v>0.12322400042254265</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="17">
         <v>1722</v>
       </c>
-      <c r="D36" s="21">
-        <f>+C36/$C$42</f>
+      <c r="D36" s="18">
+        <f t="shared" si="0"/>
         <v>9.0952305498336244E-2</v>
       </c>
     </row>
@@ -1294,7 +1273,7 @@
         <v>12798</v>
       </c>
       <c r="D37" s="4">
-        <f>+C37/$C$42</f>
+        <f t="shared" si="0"/>
         <v>0.6759626049754397</v>
       </c>
     </row>
@@ -1306,7 +1285,7 @@
         <v>5552</v>
       </c>
       <c r="D38" s="4">
-        <f>+C38/$C$42</f>
+        <f t="shared" si="0"/>
         <v>0.29324459937674957</v>
       </c>
     </row>
@@ -1318,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="4">
-        <f>+C39/$C$42</f>
+        <f t="shared" si="0"/>
         <v>7.3944963819785555E-4</v>
       </c>
     </row>
@@ -1330,32 +1309,31 @@
         <v>569</v>
       </c>
       <c r="D40" s="4">
-        <f>+C40/$C$42</f>
+        <f t="shared" si="0"/>
         <v>3.0053346009612847E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <f>+SUM(C38:C40)</f>
         <v>6135</v>
       </c>
-      <c r="D41" s="18">
-        <f>+C41/$C$42</f>
+      <c r="D41" s="15">
+        <f t="shared" si="0"/>
         <v>0.3240373950245603</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
+      <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="1">
         <f>+C41+C37</f>
         <v>18933</v>
       </c>
-      <c r="D42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,13 +1342,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5B1615-EDBA-48C9-9E9C-E1C8A2B8E6E4}">
-  <dimension ref="A1:EJ105"/>
+  <dimension ref="A1:EM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1379,11 +1357,11 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="42" max="42" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
@@ -1415,7 +1393,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1453,96 +1431,110 @@
         <v>59</v>
       </c>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="R2">
+      <c r="P2" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2016</v>
+      </c>
+      <c r="S2" s="7">
+        <v>2017</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2018</v>
+      </c>
+      <c r="U2">
         <v>2019</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:AM2" si="0">+R2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AP2" si="0">+U2+1</f>
         <v>2020</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1574,8 +1566,12 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1596,8 +1592,12 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1627,8 +1627,12 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1646,8 +1650,12 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1662,8 +1670,12 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1685,8 +1697,12 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
@@ -1708,8 +1724,12 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1731,8 +1751,12 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
@@ -1754,8 +1778,12 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
@@ -1777,8 +1805,12 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1793,8 +1825,12 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1808,7 +1844,7 @@
         <v>11939</v>
       </c>
       <c r="F14" s="1">
-        <f>+V14-SUM(C14:E14)</f>
+        <f>+Y14-SUM(C14:E14)</f>
         <v>12195</v>
       </c>
       <c r="G14" s="1">
@@ -1821,32 +1857,32 @@
         <v>12630</v>
       </c>
       <c r="J14" s="1">
-        <f>+W14-SUM(G14:I14)</f>
+        <f>+Z14-SUM(G14:I14)</f>
         <v>13141</v>
       </c>
       <c r="K14" s="1">
         <v>12798</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14" s="1">
         <v>34936</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14" s="1">
         <v>10083</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14" s="1">
         <v>34630</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14" s="1">
         <v>42967</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Y14" s="1">
         <v>47381</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Z14" s="1">
         <v>50406</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1896,7 @@
         <v>5240</v>
       </c>
       <c r="F15" s="1">
-        <f>+V15-SUM(C15:E15)</f>
+        <f>+Y15-SUM(C15:E15)</f>
         <v>5552</v>
       </c>
       <c r="G15" s="1">
@@ -1873,170 +1909,162 @@
         <v>6149</v>
       </c>
       <c r="J15" s="1">
-        <f>+W15-SUM(G15:I15)</f>
+        <f>+Z15-SUM(G15:I15)</f>
         <v>6077</v>
       </c>
       <c r="K15" s="1">
         <v>6135</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15" s="1">
         <v>12084</v>
       </c>
-      <c r="S15" s="1">
+      <c r="V15" s="1">
         <v>36087</v>
       </c>
-      <c r="T15" s="1">
+      <c r="W15" s="1">
         <v>9033</v>
       </c>
-      <c r="U15" s="1">
+      <c r="X15" s="1">
         <v>12658</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Y15" s="1">
         <v>19983</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Z15" s="1">
         <v>23795</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="3">
-        <f>+C14+C15</f>
+        <f t="shared" ref="C16:K16" si="1">+C14+C15</f>
         <v>15714</v>
       </c>
       <c r="D16" s="3">
-        <f>+D14+D15</f>
+        <f t="shared" si="1"/>
         <v>16724</v>
       </c>
       <c r="E16" s="3">
-        <f>+E14+E15</f>
+        <f t="shared" si="1"/>
         <v>17179</v>
       </c>
       <c r="F16" s="3">
-        <f>+F14+F15</f>
+        <f t="shared" si="1"/>
         <v>17747</v>
       </c>
       <c r="G16" s="3">
-        <f>+G14+G15</f>
+        <f t="shared" si="1"/>
         <v>17807</v>
       </c>
       <c r="H16" s="3">
-        <f>+H14+H15</f>
+        <f t="shared" si="1"/>
         <v>18397</v>
       </c>
       <c r="I16" s="3">
-        <f>+I14+I15</f>
+        <f t="shared" si="1"/>
         <v>18779</v>
       </c>
       <c r="J16" s="3">
-        <f>+J14+J15</f>
+        <f t="shared" si="1"/>
         <v>19218</v>
       </c>
       <c r="K16" s="3">
-        <f>+K14+K15</f>
+        <f t="shared" si="1"/>
         <v>18933</v>
       </c>
-      <c r="P16" s="6">
-        <f>(W16/R16)^(1/6)-1</f>
-        <v>7.8999364541760597E-2</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" ref="R16:W16" si="1">+R14+R15</f>
+      <c r="U16" s="3">
+        <f t="shared" ref="U16:Z16" si="2">+U14+U15</f>
         <v>47020</v>
       </c>
-      <c r="S16" s="3">
-        <f t="shared" si="1"/>
+      <c r="V16" s="3">
+        <f t="shared" si="2"/>
         <v>46170</v>
       </c>
-      <c r="T16" s="3">
-        <f t="shared" si="1"/>
+      <c r="W16" s="3">
+        <f t="shared" si="2"/>
         <v>43663</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" si="1"/>
+      <c r="X16" s="3">
+        <f t="shared" si="2"/>
         <v>55625</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" si="1"/>
+      <c r="Y16" s="3">
+        <f t="shared" si="2"/>
         <v>67364</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" si="1"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="2"/>
         <v>74201</v>
       </c>
     </row>
-    <row r="17" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1">
-        <f>+C18-C16</f>
+        <f t="shared" ref="C17:K17" si="3">+C18-C16</f>
         <v>-2488</v>
       </c>
       <c r="D17" s="1">
-        <f>+D18-D16</f>
+        <f t="shared" si="3"/>
         <v>-2868</v>
       </c>
       <c r="E17" s="1">
-        <f>+E18-E16</f>
+        <f t="shared" si="3"/>
         <v>-3031</v>
       </c>
       <c r="F17" s="1">
-        <f>+F18-F16</f>
+        <f t="shared" si="3"/>
         <v>-3385</v>
       </c>
       <c r="G17" s="1">
-        <f>+G18-G16</f>
+        <f t="shared" si="3"/>
         <v>-3275</v>
       </c>
       <c r="H17" s="1">
-        <f>+H18-H16</f>
+        <f t="shared" si="3"/>
         <v>-3332</v>
       </c>
       <c r="I17" s="1">
-        <f>+I18-I16</f>
+        <f t="shared" si="3"/>
         <v>-3499</v>
       </c>
       <c r="J17" s="1">
-        <f>+J18-J16</f>
+        <f t="shared" si="3"/>
         <v>-3331</v>
       </c>
       <c r="K17" s="1">
-        <f>+K18-K16</f>
+        <f t="shared" si="3"/>
         <v>-3116</v>
       </c>
-      <c r="P17" s="6">
-        <f>(W17/R17)^(1/6)-1</f>
-        <v>0.11383055564133326</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" ref="R17:W17" si="2">+R18-R16</f>
+      <c r="U17" s="1">
+        <f t="shared" ref="U17:Z17" si="4">+U18-U16</f>
         <v>-7037</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" si="2"/>
+      <c r="V17" s="1">
+        <f t="shared" si="4"/>
         <v>-14813</v>
       </c>
-      <c r="T17" s="1">
-        <f t="shared" si="2"/>
+      <c r="W17" s="1">
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="U17" s="1">
-        <f t="shared" si="2"/>
+      <c r="X17" s="1">
+        <f t="shared" si="4"/>
         <v>-4945</v>
       </c>
-      <c r="V17" s="1">
-        <f t="shared" si="2"/>
+      <c r="Y17" s="1">
+        <f t="shared" si="4"/>
         <v>-11772</v>
       </c>
-      <c r="W17" s="1">
-        <f t="shared" si="2"/>
+      <c r="Z17" s="1">
+        <f t="shared" si="4"/>
         <v>-13437</v>
       </c>
     </row>
-    <row r="18" spans="2:140" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:143" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2078,7 @@
         <v>14148</v>
       </c>
       <c r="F18" s="3">
-        <f>+V18-SUM(C18:E18)</f>
+        <f>+Y18-SUM(C18:E18)</f>
         <v>14362</v>
       </c>
       <c r="G18" s="3">
@@ -2063,100 +2091,96 @@
         <v>15280</v>
       </c>
       <c r="J18" s="3">
-        <f>+W18-SUM(G18:I18)</f>
+        <f>+Z18-SUM(G18:I18)</f>
         <v>15887</v>
       </c>
       <c r="K18" s="3">
         <v>15817</v>
       </c>
-      <c r="P18" s="6">
-        <f>(W18/R18)^(1/6)-1</f>
-        <v>7.2247797972556649E-2</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>39983</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>31357</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>43799</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>50680</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>55592</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>60764</v>
       </c>
-      <c r="X18" s="3">
-        <f>+W18*1.07</f>
+      <c r="AA18" s="3">
+        <f>+Z18*1.07</f>
         <v>65017.48</v>
       </c>
-      <c r="Y18" s="3">
-        <f t="shared" ref="Y18:AM18" si="3">+X18*1.07</f>
+      <c r="AB18" s="3">
+        <f t="shared" ref="AB18:AP18" si="5">+AA18*1.07</f>
         <v>69568.703600000008</v>
       </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AC18" s="3">
+        <f t="shared" si="5"/>
         <v>74438.512852000014</v>
       </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AD18" s="3">
+        <f t="shared" si="5"/>
         <v>79649.208751640021</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AE18" s="3">
+        <f t="shared" si="5"/>
         <v>85224.653364254831</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AF18" s="3">
+        <f t="shared" si="5"/>
         <v>91190.379099752681</v>
       </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AG18" s="3">
+        <f t="shared" si="5"/>
         <v>97573.70563673538</v>
       </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AH18" s="3">
+        <f t="shared" si="5"/>
         <v>104403.86503130686</v>
       </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AI18" s="3">
+        <f t="shared" si="5"/>
         <v>111712.13558349836</v>
       </c>
-      <c r="AG18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AJ18" s="3">
+        <f t="shared" si="5"/>
         <v>119531.98507434325</v>
       </c>
-      <c r="AH18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AK18" s="3">
+        <f t="shared" si="5"/>
         <v>127899.22402954729</v>
       </c>
-      <c r="AI18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AL18" s="3">
+        <f t="shared" si="5"/>
         <v>136852.1697116156</v>
       </c>
-      <c r="AJ18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AM18" s="3">
+        <f t="shared" si="5"/>
         <v>146431.82159142871</v>
       </c>
-      <c r="AK18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN18" s="3">
+        <f t="shared" si="5"/>
         <v>156682.04910282872</v>
       </c>
-      <c r="AL18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AO18" s="3">
+        <f t="shared" si="5"/>
         <v>167649.79254002674</v>
       </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="3"/>
+      <c r="AP18" s="3">
+        <f t="shared" si="5"/>
         <v>179385.27801782862</v>
       </c>
     </row>
-    <row r="19" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2194,7 @@
         <v>3794</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F24" si="4">+V19-SUM(C19:E19)</f>
+        <f>+Y19-SUM(C19:E19)</f>
         <v>3851</v>
       </c>
       <c r="G19" s="1">
@@ -2183,100 +2207,96 @@
         <v>4168</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ref="J19:J24" si="5">+W19-SUM(G19:I19)</f>
+        <f>+Z19-SUM(G19:I19)</f>
         <v>4430</v>
       </c>
       <c r="K19" s="1">
         <v>4378</v>
       </c>
-      <c r="P19" s="6">
-        <f>(W19/R19)^(1/6)-1</f>
-        <v>8.0364996064425265E-2</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="U19" s="1">
         <v>10439</v>
       </c>
-      <c r="S19" s="1">
+      <c r="V19" s="1">
         <v>8041</v>
       </c>
-      <c r="T19" s="1">
+      <c r="W19" s="1">
         <v>11007</v>
       </c>
-      <c r="U19" s="1">
+      <c r="X19" s="1">
         <v>14002</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Y19" s="1">
         <v>15367</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Z19" s="1">
         <v>16599</v>
       </c>
-      <c r="X19" s="1">
-        <f>+W19*1.08</f>
+      <c r="AA19" s="1">
+        <f>+Z19*1.08</f>
         <v>17926.920000000002</v>
       </c>
-      <c r="Y19" s="1">
-        <f t="shared" ref="Y19:AM19" si="6">+X19*1.08</f>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AP19" si="6">+AA19*1.08</f>
         <v>19361.073600000003</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <f t="shared" si="6"/>
         <v>20909.959488000004</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <f t="shared" si="6"/>
         <v>22582.756247040004</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AE19" s="1">
         <f t="shared" si="6"/>
         <v>24389.376746803206</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AF19" s="1">
         <f t="shared" si="6"/>
         <v>26340.526886547465</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AG19" s="1">
         <f t="shared" si="6"/>
         <v>28447.769037471262</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AH19" s="1">
         <f t="shared" si="6"/>
         <v>30723.590560468965</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AI19" s="1">
         <f t="shared" si="6"/>
         <v>33181.477805306487</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AJ19" s="1">
         <f t="shared" si="6"/>
         <v>35835.99602973101</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AK19" s="1">
         <f t="shared" si="6"/>
         <v>38702.875712109497</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AL19" s="1">
         <f t="shared" si="6"/>
         <v>41799.105769078262</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AM19" s="1">
         <f t="shared" si="6"/>
         <v>45143.034230604528</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AN19" s="1">
         <f t="shared" si="6"/>
         <v>48754.476969052892</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AO19" s="1">
         <f t="shared" si="6"/>
         <v>52654.835126577127</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AP19" s="1">
         <f t="shared" si="6"/>
         <v>56867.221936703303</v>
       </c>
     </row>
-    <row r="20" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2290,7 +2310,7 @@
         <v>1393</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="4"/>
+        <f>+Y20-SUM(C20:E20)</f>
         <v>483</v>
       </c>
       <c r="G20" s="1">
@@ -2303,100 +2323,96 @@
         <v>1430</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="5"/>
+        <f>+Z20-SUM(G20:I20)</f>
         <v>1637</v>
       </c>
       <c r="K20" s="1">
         <v>1529</v>
       </c>
-      <c r="P20" s="6">
-        <f>(W20/U20)^(1/6)-1</f>
-        <v>2.9528265408695686E-2</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
         <v>7125</v>
       </c>
-      <c r="S20" s="1">
+      <c r="V20" s="1">
         <v>6747</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <v>9053</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <v>4943</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Y20" s="1">
         <v>4657</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Z20" s="1">
         <v>5886</v>
       </c>
-      <c r="X20" s="1">
-        <f>+W20*1.04</f>
+      <c r="AA20" s="1">
+        <f>+Z20*1.04</f>
         <v>6121.4400000000005</v>
       </c>
-      <c r="Y20" s="1">
-        <f t="shared" ref="Y20:AM20" si="7">+X20*1.03</f>
+      <c r="AB20" s="1">
+        <f t="shared" ref="AB20:AP20" si="7">+AA20*1.03</f>
         <v>6305.0832000000009</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <f t="shared" si="7"/>
         <v>6494.2356960000016</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <f t="shared" si="7"/>
         <v>6689.0627668800016</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <f t="shared" si="7"/>
         <v>6889.7346498864017</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AF20" s="1">
         <f t="shared" si="7"/>
         <v>7096.4266893829936</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AG20" s="1">
         <f t="shared" si="7"/>
         <v>7309.3194900644839</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AH20" s="1">
         <f t="shared" si="7"/>
         <v>7528.5990747664191</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AI20" s="1">
         <f t="shared" si="7"/>
         <v>7754.4570470094122</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AJ20" s="1">
         <f t="shared" si="7"/>
         <v>7987.0907584196948</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AK20" s="1">
         <f t="shared" si="7"/>
         <v>8226.703481172286</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AL20" s="1">
         <f t="shared" si="7"/>
         <v>8473.5045856074557</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AM20" s="1">
         <f t="shared" si="7"/>
         <v>8727.7097231756798</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AN20" s="1">
         <f t="shared" si="7"/>
         <v>8989.5410148709507</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AO20" s="1">
         <f t="shared" si="7"/>
         <v>9259.227245317079</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AP20" s="1">
         <f t="shared" si="7"/>
         <v>9537.0040626765913</v>
       </c>
     </row>
-    <row r="21" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2426,7 @@
         <v>973</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
+        <f>+Y21-SUM(C21:E21)</f>
         <v>1063</v>
       </c>
       <c r="G21" s="1">
@@ -2423,100 +2439,96 @@
         <v>1179</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
+        <f>+Z21-SUM(G21:I21)</f>
         <v>1278</v>
       </c>
       <c r="K21" s="1">
         <v>1328</v>
       </c>
-      <c r="P21" s="6">
-        <f>(W21/R21)^(1/6)-1</f>
-        <v>0.13617444851440652</v>
-      </c>
-      <c r="R21" s="1">
+      <c r="U21" s="1">
         <v>2223</v>
       </c>
-      <c r="S21" s="1">
+      <c r="V21" s="1">
         <v>1230</v>
       </c>
-      <c r="T21" s="1">
+      <c r="W21" s="1">
         <v>1993</v>
       </c>
-      <c r="U21" s="1">
+      <c r="X21" s="1">
         <v>2959</v>
       </c>
-      <c r="V21" s="1">
+      <c r="Y21" s="1">
         <v>3968</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Z21" s="1">
         <v>4782</v>
       </c>
-      <c r="X21" s="1">
-        <f>+W21*1.14</f>
+      <c r="AA21" s="1">
+        <f>+Z21*1.14</f>
         <v>5451.48</v>
       </c>
-      <c r="Y21" s="1">
-        <f t="shared" ref="Y21:AM21" si="8">+X21*1.12</f>
+      <c r="AB21" s="1">
+        <f t="shared" ref="AB21:AP21" si="8">+AA21*1.12</f>
         <v>6105.6576000000005</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AC21" s="1">
         <f t="shared" si="8"/>
         <v>6838.3365120000008</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AD21" s="1">
         <f t="shared" si="8"/>
         <v>7658.9368934400018</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AE21" s="1">
         <f t="shared" si="8"/>
         <v>8578.0093206528036</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AF21" s="1">
         <f t="shared" si="8"/>
         <v>9607.3704391311403</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AG21" s="1">
         <f t="shared" si="8"/>
         <v>10760.254891826879</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AH21" s="1">
         <f t="shared" si="8"/>
         <v>12051.485478846105</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AI21" s="1">
         <f t="shared" si="8"/>
         <v>13497.663736307639</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AJ21" s="1">
         <f t="shared" si="8"/>
         <v>15117.383384664558</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AK21" s="1">
         <f t="shared" si="8"/>
         <v>16931.469390824306</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AL21" s="1">
         <f t="shared" si="8"/>
         <v>18963.245717723225</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AM21" s="1">
         <f t="shared" si="8"/>
         <v>21238.835203850012</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AN21" s="1">
         <f t="shared" si="8"/>
         <v>23787.495428312017</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AO21" s="1">
         <f t="shared" si="8"/>
         <v>26641.994879709462</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AP21" s="1">
         <f t="shared" si="8"/>
         <v>29839.0342652746</v>
       </c>
     </row>
-    <row r="22" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>1236</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="4"/>
+        <f>+Y22-SUM(C22:E22)</f>
         <v>1228</v>
       </c>
       <c r="G22" s="1">
@@ -2543,100 +2555,96 @@
         <v>1470</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
+        <f>+Z22-SUM(G22:I22)</f>
         <v>1614</v>
       </c>
       <c r="K22" s="1">
         <v>1486</v>
       </c>
-      <c r="P22" s="6">
-        <f>(W22/U22)^(1/6)-1</f>
-        <v>1.7030321842929297E-2</v>
-      </c>
-      <c r="R22" s="1">
+      <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="1">
+      <c r="V22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1">
+      <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="U22" s="1">
+      <c r="X22" s="1">
         <v>5458</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Y22" s="1">
         <v>5213</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Z22" s="1">
         <v>6040</v>
       </c>
-      <c r="X22" s="1">
-        <f>+W22*1.03</f>
+      <c r="AA22" s="1">
+        <f>+Z22*1.03</f>
         <v>6221.2</v>
       </c>
-      <c r="Y22" s="1">
-        <f t="shared" ref="Y22:AM22" si="9">+X22*1.02</f>
+      <c r="AB22" s="1">
+        <f t="shared" ref="AB22:AP22" si="9">+AA22*1.02</f>
         <v>6345.6239999999998</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <f t="shared" si="9"/>
         <v>6472.5364799999998</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <f t="shared" si="9"/>
         <v>6601.9872095999999</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AE22" s="1">
         <f t="shared" si="9"/>
         <v>6734.0269537920003</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AF22" s="1">
         <f t="shared" si="9"/>
         <v>6868.7074928678403</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AG22" s="1">
         <f t="shared" si="9"/>
         <v>7006.0816427251975</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AH22" s="1">
         <f t="shared" si="9"/>
         <v>7146.2032755797018</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AI22" s="1">
         <f t="shared" si="9"/>
         <v>7289.1273410912963</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AJ22" s="1">
         <f t="shared" si="9"/>
         <v>7434.9098879131225</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AK22" s="1">
         <f t="shared" si="9"/>
         <v>7583.6080856713852</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AL22" s="1">
         <f t="shared" si="9"/>
         <v>7735.2802473848133</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AM22" s="1">
         <f t="shared" si="9"/>
         <v>7889.9858523325092</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AN22" s="1">
         <f t="shared" si="9"/>
         <v>8047.7855693791598</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AO22" s="1">
         <f t="shared" si="9"/>
         <v>8208.7412807667424</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AP22" s="1">
         <f t="shared" si="9"/>
         <v>8372.9161063820775</v>
       </c>
     </row>
-    <row r="23" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>2047</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="4"/>
+        <f>+Y23-SUM(C23:E23)</f>
         <v>2131</v>
       </c>
       <c r="G23" s="1">
@@ -2663,100 +2671,96 @@
         <v>2049</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
+        <f>+Z23-SUM(G23:I23)</f>
         <v>2102</v>
       </c>
       <c r="K23" s="1">
         <v>2120</v>
       </c>
-      <c r="P23" s="6">
-        <f>(W23/R23)^(1/6)-1</f>
-        <v>5.6025711895263619E-2</v>
-      </c>
-      <c r="R23" s="1">
+      <c r="U23" s="1">
         <v>5911</v>
       </c>
-      <c r="S23" s="1">
+      <c r="V23" s="1">
         <v>5718</v>
       </c>
-      <c r="T23" s="1">
+      <c r="W23" s="1">
         <v>6240</v>
       </c>
-      <c r="U23" s="1">
+      <c r="X23" s="1">
         <v>7252</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Y23" s="1">
         <v>8067</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Z23" s="1">
         <v>8198</v>
       </c>
-      <c r="X23" s="1">
-        <f>+W23*1.06</f>
+      <c r="AA23" s="1">
+        <f>+Z23*1.06</f>
         <v>8689.880000000001</v>
       </c>
-      <c r="Y23" s="1">
-        <f t="shared" ref="Y23:AM23" si="10">+X23*1.05</f>
+      <c r="AB23" s="1">
+        <f t="shared" ref="AB23:AP23" si="10">+AA23*1.05</f>
         <v>9124.3740000000016</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AC23" s="1">
         <f t="shared" si="10"/>
         <v>9580.5927000000029</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AD23" s="1">
         <f t="shared" si="10"/>
         <v>10059.622335000004</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AE23" s="1">
         <f t="shared" si="10"/>
         <v>10562.603451750005</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AF23" s="1">
         <f t="shared" si="10"/>
         <v>11090.733624337505</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AG23" s="1">
         <f t="shared" si="10"/>
         <v>11645.270305554381</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AH23" s="1">
         <f t="shared" si="10"/>
         <v>12227.533820832101</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AI23" s="1">
         <f t="shared" si="10"/>
         <v>12838.910511873706</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AJ23" s="1">
         <f t="shared" si="10"/>
         <v>13480.856037467393</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AK23" s="1">
         <f t="shared" si="10"/>
         <v>14154.898839340764</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AL23" s="1">
         <f t="shared" si="10"/>
         <v>14862.643781307803</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AM23" s="1">
         <f t="shared" si="10"/>
         <v>15605.775970373194</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AN23" s="1">
         <f t="shared" si="10"/>
         <v>16386.064768891854</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AO23" s="1">
         <f t="shared" si="10"/>
         <v>17205.368007336448</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AP23" s="1">
         <f t="shared" si="10"/>
         <v>18065.63640770327</v>
       </c>
     </row>
-    <row r="24" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>1605</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
+        <f>+Y24-SUM(C24:E24)</f>
         <v>2094</v>
       </c>
       <c r="G24" s="1">
@@ -2783,358 +2787,354 @@
         <v>1780</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
+        <f>+Z24-SUM(G24:I24)</f>
         <v>2070</v>
       </c>
       <c r="K24" s="1">
         <v>1646</v>
       </c>
-      <c r="P24" s="6">
-        <f>(W24/R24)^(1/6)-1</f>
-        <v>1.3961621299948712E-2</v>
-      </c>
-      <c r="R24" s="1">
+      <c r="U24" s="1">
         <v>5856</v>
       </c>
-      <c r="S24" s="1">
+      <c r="V24" s="1">
         <v>5325</v>
       </c>
-      <c r="T24" s="1">
+      <c r="W24" s="1">
         <v>4817</v>
       </c>
-      <c r="U24" s="1">
+      <c r="X24" s="1">
         <v>6481</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Y24" s="1">
         <v>6807</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Z24" s="1">
         <v>6364</v>
       </c>
-      <c r="X24" s="1">
-        <f>+W24*1.01</f>
+      <c r="AA24" s="1">
+        <f>+Z24*1.01</f>
         <v>6427.64</v>
       </c>
-      <c r="Y24" s="1">
-        <f t="shared" ref="Y24:AM24" si="11">+X24*1.01</f>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24:AP24" si="11">+AA24*1.01</f>
         <v>6491.9164000000001</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AC24" s="1">
         <f t="shared" si="11"/>
         <v>6556.835564</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AD24" s="1">
         <f t="shared" si="11"/>
         <v>6622.4039196399999</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AE24" s="1">
         <f t="shared" si="11"/>
         <v>6688.6279588363996</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AF24" s="1">
         <f t="shared" si="11"/>
         <v>6755.5142384247638</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AG24" s="1">
         <f t="shared" si="11"/>
         <v>6823.0693808090118</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AH24" s="1">
         <f t="shared" si="11"/>
         <v>6891.3000746171019</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AI24" s="1">
         <f t="shared" si="11"/>
         <v>6960.2130753632728</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AJ24" s="1">
         <f t="shared" si="11"/>
         <v>7029.8152061169058</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AK24" s="1">
         <f t="shared" si="11"/>
         <v>7100.113358178075</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AL24" s="1">
         <f t="shared" si="11"/>
         <v>7171.1144917598558</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AM24" s="1">
         <f t="shared" si="11"/>
         <v>7242.825636677454</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AN24" s="1">
         <f t="shared" si="11"/>
         <v>7315.2538930442288</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AO24" s="1">
         <f t="shared" si="11"/>
         <v>7388.4064319746712</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AP24" s="1">
         <f t="shared" si="11"/>
         <v>7462.2904962944176</v>
       </c>
     </row>
-    <row r="25" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1">
-        <f>+SUM(C19:C24)</f>
+        <f t="shared" ref="C25:K25" si="12">+SUM(C19:C24)</f>
         <v>11059</v>
       </c>
       <c r="D25" s="1">
-        <f>+SUM(D19:D24)</f>
+        <f t="shared" si="12"/>
         <v>11122</v>
       </c>
       <c r="E25" s="1">
-        <f>+SUM(E19:E24)</f>
+        <f t="shared" si="12"/>
         <v>11048</v>
       </c>
       <c r="F25" s="1">
-        <f>+SUM(F19:F24)</f>
+        <f t="shared" si="12"/>
         <v>10850</v>
       </c>
       <c r="G25" s="1">
-        <f>+SUM(G19:G24)</f>
+        <f t="shared" si="12"/>
         <v>11387</v>
       </c>
       <c r="H25" s="1">
-        <f>+SUM(H19:H24)</f>
+        <f t="shared" si="12"/>
         <v>11275</v>
       </c>
       <c r="I25" s="1">
-        <f>+SUM(I19:I24)</f>
+        <f t="shared" si="12"/>
         <v>12076</v>
       </c>
       <c r="J25" s="1">
-        <f>+SUM(J19:J24)</f>
+        <f t="shared" si="12"/>
         <v>13131</v>
       </c>
       <c r="K25" s="1">
-        <f>+SUM(K19:K24)</f>
+        <f t="shared" si="12"/>
         <v>12487</v>
       </c>
-      <c r="R25" s="1">
-        <f>+SUM(R19:R24)</f>
+      <c r="U25" s="1">
+        <f>+SUM(U19:U24)</f>
         <v>31554</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" ref="S25:V25" si="12">+SUM(S19:S24)</f>
+      <c r="V25" s="1">
+        <f t="shared" ref="V25:Y25" si="13">+SUM(V19:V24)</f>
         <v>27061</v>
       </c>
-      <c r="T25" s="1">
-        <f t="shared" si="12"/>
+      <c r="W25" s="1">
+        <f t="shared" si="13"/>
         <v>33110</v>
       </c>
-      <c r="U25" s="1">
-        <f t="shared" si="12"/>
+      <c r="X25" s="1">
+        <f t="shared" si="13"/>
         <v>41095</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="12"/>
-        <v>44079</v>
-      </c>
-      <c r="W25" s="1">
-        <f>+SUM(W19:W24)</f>
-        <v>47869</v>
-      </c>
-      <c r="X25" s="1">
-        <f t="shared" ref="X25:AM25" si="13">+SUM(X19:X24)</f>
-        <v>50838.559999999998</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="13"/>
+        <v>44079</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>+SUM(Z19:Z24)</f>
+        <v>47869</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" ref="AA25:AP25" si="14">+SUM(AA19:AA24)</f>
+        <v>50838.559999999998</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="14"/>
         <v>53733.728800000004</v>
       </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AC25" s="1">
+        <f t="shared" si="14"/>
         <v>56852.49644000001</v>
       </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AD25" s="1">
+        <f t="shared" si="14"/>
         <v>60214.769371600007</v>
       </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AE25" s="1">
+        <f t="shared" si="14"/>
         <v>63842.379081720821</v>
       </c>
-      <c r="AC25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AF25" s="1">
+        <f t="shared" si="14"/>
         <v>67759.2793706917</v>
       </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AG25" s="1">
+        <f t="shared" si="14"/>
         <v>71991.764748451213</v>
       </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AH25" s="1">
+        <f t="shared" si="14"/>
         <v>76568.712285110392</v>
       </c>
-      <c r="AF25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AI25" s="1">
+        <f t="shared" si="14"/>
         <v>81521.849516951814</v>
       </c>
-      <c r="AG25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AJ25" s="1">
+        <f t="shared" si="14"/>
         <v>86886.051304312699</v>
       </c>
-      <c r="AH25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AK25" s="1">
+        <f t="shared" si="14"/>
         <v>92699.668867296306</v>
       </c>
-      <c r="AI25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AL25" s="1">
+        <f t="shared" si="14"/>
         <v>99004.894592861427</v>
       </c>
-      <c r="AJ25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AM25" s="1">
+        <f t="shared" si="14"/>
         <v>105848.16661701338</v>
       </c>
-      <c r="AK25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AN25" s="1">
+        <f t="shared" si="14"/>
         <v>113280.6176435511</v>
       </c>
-      <c r="AL25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AO25" s="1">
+        <f t="shared" si="14"/>
         <v>121358.57297168153</v>
       </c>
-      <c r="AM25" s="1">
-        <f t="shared" si="13"/>
+      <c r="AP25" s="1">
+        <f t="shared" si="14"/>
         <v>130144.10327503426</v>
       </c>
     </row>
-    <row r="26" spans="2:140" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:143" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26" si="14">+C18-C25</f>
+        <f t="shared" ref="C26" si="15">+C18-C25</f>
         <v>2167</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:E26" si="15">+D18-D25</f>
+        <f t="shared" ref="D26:E26" si="16">+D18-D25</f>
         <v>2734</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3100</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ref="F26" si="16">+F18-F25</f>
+        <f t="shared" ref="F26" si="17">+F18-F25</f>
         <v>3512</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:H26" si="17">+G18-G25</f>
+        <f t="shared" ref="G26:H26" si="18">+G18-G25</f>
         <v>3145</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3790</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" ref="I26:J26" si="18">+I18-I25</f>
+        <f t="shared" ref="I26:J26" si="19">+I18-I25</f>
         <v>3204</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2756</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26" si="19">+K18-K25</f>
+        <f t="shared" ref="K26" si="20">+K18-K25</f>
         <v>3330</v>
       </c>
-      <c r="R26" s="3">
-        <f t="shared" ref="R26:AM26" si="20">+R18-R25</f>
+      <c r="U26" s="3">
+        <f t="shared" ref="U26:AP26" si="21">+U18-U25</f>
         <v>8429</v>
       </c>
-      <c r="S26" s="3">
-        <f t="shared" si="20"/>
+      <c r="V26" s="3">
+        <f t="shared" si="21"/>
         <v>4296</v>
       </c>
-      <c r="T26" s="3">
-        <f t="shared" si="20"/>
+      <c r="W26" s="3">
+        <f t="shared" si="21"/>
         <v>10689</v>
       </c>
-      <c r="U26" s="3">
-        <f t="shared" si="20"/>
+      <c r="X26" s="3">
+        <f t="shared" si="21"/>
         <v>9585</v>
       </c>
-      <c r="V26" s="3">
-        <f t="shared" si="20"/>
+      <c r="Y26" s="3">
+        <f t="shared" si="21"/>
         <v>11513</v>
       </c>
-      <c r="W26" s="3">
-        <f t="shared" si="20"/>
+      <c r="Z26" s="3">
+        <f t="shared" si="21"/>
         <v>12895</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AA26" s="3">
+        <f t="shared" si="21"/>
         <v>14178.920000000006</v>
       </c>
-      <c r="Y26" s="3">
-        <f>+Y18-Y25</f>
+      <c r="AB26" s="3">
+        <f>+AB18-AB25</f>
         <v>15834.974800000004</v>
       </c>
-      <c r="Z26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AC26" s="3">
+        <f t="shared" si="21"/>
         <v>17586.016412000004</v>
       </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AD26" s="3">
+        <f t="shared" si="21"/>
         <v>19434.439380040014</v>
       </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AE26" s="3">
+        <f t="shared" si="21"/>
         <v>21382.27428253401</v>
       </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AF26" s="3">
+        <f t="shared" si="21"/>
         <v>23431.099729060981</v>
       </c>
-      <c r="AD26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AG26" s="3">
+        <f t="shared" si="21"/>
         <v>25581.940888284167</v>
       </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AH26" s="3">
+        <f t="shared" si="21"/>
         <v>27835.152746196472</v>
       </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AI26" s="3">
+        <f t="shared" si="21"/>
         <v>30190.286066546541</v>
       </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ26" s="3">
+        <f t="shared" si="21"/>
         <v>32645.933770030548</v>
       </c>
-      <c r="AH26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AK26" s="3">
+        <f t="shared" si="21"/>
         <v>35199.555162250981</v>
       </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AL26" s="3">
+        <f t="shared" si="21"/>
         <v>37847.275118754173</v>
       </c>
-      <c r="AJ26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AM26" s="3">
+        <f t="shared" si="21"/>
         <v>40583.654974415331</v>
       </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AN26" s="3">
+        <f t="shared" si="21"/>
         <v>43401.431459277621</v>
       </c>
-      <c r="AL26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AO26" s="3">
+        <f t="shared" si="21"/>
         <v>46291.219568345216</v>
       </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="20"/>
+      <c r="AP26" s="3">
+        <f t="shared" si="21"/>
         <v>49241.174742794363</v>
       </c>
     </row>
-    <row r="27" spans="2:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>649</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27" si="21">+V27-SUM(C27:E27)</f>
+        <f>+Y27-SUM(C27:E27)</f>
         <v>579</v>
       </c>
       <c r="G27" s="1">
@@ -3161,698 +3161,698 @@
         <v>697</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="22">+W27-SUM(G27:I27)</f>
+        <f>+Z27-SUM(G27:I27)</f>
         <v>586</v>
       </c>
       <c r="K27" s="1">
         <v>746</v>
       </c>
-      <c r="R27" s="1">
+      <c r="U27" s="1">
         <v>1670</v>
       </c>
-      <c r="S27" s="1">
+      <c r="V27" s="1">
         <v>1161</v>
       </c>
-      <c r="T27" s="1">
+      <c r="W27" s="1">
         <v>2629</v>
       </c>
-      <c r="U27" s="1">
+      <c r="X27" s="1">
         <v>2071</v>
       </c>
-      <c r="V27" s="1">
+      <c r="Y27" s="1">
         <v>2139</v>
       </c>
-      <c r="W27" s="1">
+      <c r="Z27" s="1">
         <v>2766</v>
       </c>
-      <c r="X27" s="1">
-        <f>+X26*0.2</f>
+      <c r="AA27" s="1">
+        <f>+AA26*0.2</f>
         <v>2835.7840000000015</v>
       </c>
-      <c r="Y27" s="1">
-        <f t="shared" ref="Y27:AM27" si="23">+Y26*0.2</f>
+      <c r="AB27" s="1">
+        <f t="shared" ref="AB27:AP27" si="22">+AB26*0.2</f>
         <v>3166.9949600000009</v>
       </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AC27" s="1">
+        <f t="shared" si="22"/>
         <v>3517.2032824000012</v>
       </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AD27" s="1">
+        <f t="shared" si="22"/>
         <v>3886.8878760080029</v>
       </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AE27" s="1">
+        <f t="shared" si="22"/>
         <v>4276.4548565068026</v>
       </c>
-      <c r="AC27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AF27" s="1">
+        <f t="shared" si="22"/>
         <v>4686.2199458121968</v>
       </c>
-      <c r="AD27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AG27" s="1">
+        <f t="shared" si="22"/>
         <v>5116.3881776568342</v>
       </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AH27" s="1">
+        <f t="shared" si="22"/>
         <v>5567.0305492392945</v>
       </c>
-      <c r="AF27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AI27" s="1">
+        <f t="shared" si="22"/>
         <v>6038.0572133093083</v>
       </c>
-      <c r="AG27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AJ27" s="1">
+        <f t="shared" si="22"/>
         <v>6529.1867540061103</v>
       </c>
-      <c r="AH27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AK27" s="1">
+        <f t="shared" si="22"/>
         <v>7039.9110324501962</v>
       </c>
-      <c r="AI27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AL27" s="1">
+        <f t="shared" si="22"/>
         <v>7569.4550237508347</v>
       </c>
-      <c r="AJ27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AM27" s="1">
+        <f t="shared" si="22"/>
         <v>8116.7309948830662</v>
       </c>
-      <c r="AK27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AN27" s="1">
+        <f t="shared" si="22"/>
         <v>8680.2862918555238</v>
       </c>
-      <c r="AL27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AO27" s="1">
+        <f t="shared" si="22"/>
         <v>9258.2439136690427</v>
       </c>
-      <c r="AM27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AP27" s="1">
+        <f t="shared" si="22"/>
         <v>9848.2349485588729</v>
       </c>
     </row>
-    <row r="28" spans="2:140" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:143" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="24">+C26-C27</f>
+        <f t="shared" ref="C28" si="23">+C26-C27</f>
         <v>1816</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:F28" si="25">+D26-D27</f>
+        <f t="shared" ref="D28:F28" si="24">+D26-D27</f>
         <v>2174</v>
       </c>
       <c r="E28" s="3">
+        <f t="shared" si="24"/>
+        <v>2451</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="24"/>
+        <v>2933</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:H28" si="25">+G26-G27</f>
+        <v>2437</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="25"/>
-        <v>2451</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="25"/>
-        <v>2933</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" ref="G28:H28" si="26">+G26-G27</f>
-        <v>2437</v>
-      </c>
-      <c r="H28" s="3">
+        <v>3015</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:J28" si="26">+I26-I27</f>
+        <v>2507</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="26"/>
-        <v>3015</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" ref="I28:J28" si="27">+I26-I27</f>
-        <v>2507</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="27"/>
         <v>2170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28" si="28">+K26-K27</f>
+        <f t="shared" ref="K28" si="27">+K26-K27</f>
         <v>2584</v>
       </c>
-      <c r="R28" s="3">
-        <f t="shared" ref="R28:AM28" si="29">+R26-R27</f>
+      <c r="U28" s="3">
+        <f t="shared" ref="U28:AP28" si="28">+U26-U27</f>
         <v>6759</v>
       </c>
-      <c r="S28" s="3">
+      <c r="V28" s="3">
+        <f t="shared" si="28"/>
+        <v>3135</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="28"/>
+        <v>8060</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="28"/>
+        <v>7514</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="28"/>
+        <v>9374</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="28"/>
+        <v>10129</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" si="28"/>
+        <v>11343.136000000004</v>
+      </c>
+      <c r="AB28" s="3">
+        <f t="shared" si="28"/>
+        <v>12667.979840000004</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" si="28"/>
+        <v>14068.813129600003</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="28"/>
+        <v>15547.551504032012</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="28"/>
+        <v>17105.819426027207</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="28"/>
+        <v>18744.879783248783</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="28"/>
+        <v>20465.552710627333</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" si="28"/>
+        <v>22268.122196957178</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" si="28"/>
+        <v>24152.228853237233</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="28"/>
+        <v>26116.747016024437</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="28"/>
+        <v>28159.644129800785</v>
+      </c>
+      <c r="AL28" s="3">
+        <f t="shared" si="28"/>
+        <v>30277.820095003339</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" si="28"/>
+        <v>32466.923979532265</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" si="28"/>
+        <v>34721.145167422095</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" si="28"/>
+        <v>37032.975654676171</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" si="28"/>
+        <v>39392.939794235492</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f t="shared" ref="AQ28:BV28" si="29">+AP28*(1+$AS$32)</f>
+        <v>38999.010396293139</v>
+      </c>
+      <c r="AR28" s="3">
         <f t="shared" si="29"/>
-        <v>3135</v>
-      </c>
-      <c r="T28" s="3">
+        <v>38609.020292330206</v>
+      </c>
+      <c r="AS28" s="3">
         <f t="shared" si="29"/>
-        <v>8060</v>
-      </c>
-      <c r="U28" s="3">
+        <v>38222.930089406902</v>
+      </c>
+      <c r="AT28" s="3">
         <f t="shared" si="29"/>
-        <v>7514</v>
-      </c>
-      <c r="V28" s="3">
+        <v>37840.700788512833</v>
+      </c>
+      <c r="AU28" s="3">
         <f t="shared" si="29"/>
-        <v>9374</v>
-      </c>
-      <c r="W28" s="3">
+        <v>37462.293780627704</v>
+      </c>
+      <c r="AV28" s="3">
         <f t="shared" si="29"/>
-        <v>10129</v>
-      </c>
-      <c r="X28" s="3">
+        <v>37087.670842821426</v>
+      </c>
+      <c r="AW28" s="3">
         <f t="shared" si="29"/>
-        <v>11343.136000000004</v>
-      </c>
-      <c r="Y28" s="3">
+        <v>36716.794134393211</v>
+      </c>
+      <c r="AX28" s="3">
         <f t="shared" si="29"/>
-        <v>12667.979840000004</v>
-      </c>
-      <c r="Z28" s="3">
+        <v>36349.626193049276</v>
+      </c>
+      <c r="AY28" s="3">
         <f t="shared" si="29"/>
-        <v>14068.813129600003</v>
-      </c>
-      <c r="AA28" s="3">
+        <v>35986.129931118783</v>
+      </c>
+      <c r="AZ28" s="3">
         <f t="shared" si="29"/>
-        <v>15547.551504032012</v>
-      </c>
-      <c r="AB28" s="3">
+        <v>35626.268631807594</v>
+      </c>
+      <c r="BA28" s="3">
         <f t="shared" si="29"/>
-        <v>17105.819426027207</v>
-      </c>
-      <c r="AC28" s="3">
+        <v>35270.005945489516</v>
+      </c>
+      <c r="BB28" s="3">
         <f t="shared" si="29"/>
-        <v>18744.879783248783</v>
-      </c>
-      <c r="AD28" s="3">
+        <v>34917.305886034621</v>
+      </c>
+      <c r="BC28" s="3">
         <f t="shared" si="29"/>
-        <v>20465.552710627333</v>
-      </c>
-      <c r="AE28" s="3">
+        <v>34568.132827174275</v>
+      </c>
+      <c r="BD28" s="3">
         <f t="shared" si="29"/>
-        <v>22268.122196957178</v>
-      </c>
-      <c r="AF28" s="3">
+        <v>34222.451498902534</v>
+      </c>
+      <c r="BE28" s="3">
         <f t="shared" si="29"/>
-        <v>24152.228853237233</v>
-      </c>
-      <c r="AG28" s="3">
+        <v>33880.226983913512</v>
+      </c>
+      <c r="BF28" s="3">
         <f t="shared" si="29"/>
-        <v>26116.747016024437</v>
-      </c>
-      <c r="AH28" s="3">
+        <v>33541.424714074376</v>
+      </c>
+      <c r="BG28" s="3">
         <f t="shared" si="29"/>
-        <v>28159.644129800785</v>
-      </c>
-      <c r="AI28" s="3">
+        <v>33206.010466933629</v>
+      </c>
+      <c r="BH28" s="3">
         <f t="shared" si="29"/>
-        <v>30277.820095003339</v>
-      </c>
-      <c r="AJ28" s="3">
+        <v>32873.950362264295</v>
+      </c>
+      <c r="BI28" s="3">
         <f t="shared" si="29"/>
-        <v>32466.923979532265</v>
-      </c>
-      <c r="AK28" s="3">
+        <v>32545.210858641651</v>
+      </c>
+      <c r="BJ28" s="3">
         <f t="shared" si="29"/>
-        <v>34721.145167422095</v>
-      </c>
-      <c r="AL28" s="3">
+        <v>32219.758750055233</v>
+      </c>
+      <c r="BK28" s="3">
         <f t="shared" si="29"/>
-        <v>37032.975654676171</v>
-      </c>
-      <c r="AM28" s="3">
+        <v>31897.561162554681</v>
+      </c>
+      <c r="BL28" s="3">
         <f t="shared" si="29"/>
-        <v>39392.939794235492</v>
-      </c>
-      <c r="AN28" s="3">
-        <f t="shared" ref="AN28:BS28" si="30">+AM28*(1+$AP$32)</f>
-        <v>38999.010396293139</v>
-      </c>
-      <c r="AO28" s="3">
+        <v>31578.585550929132</v>
+      </c>
+      <c r="BM28" s="3">
+        <f t="shared" si="29"/>
+        <v>31262.799695419842</v>
+      </c>
+      <c r="BN28" s="3">
+        <f t="shared" si="29"/>
+        <v>30950.171698465645</v>
+      </c>
+      <c r="BO28" s="3">
+        <f t="shared" si="29"/>
+        <v>30640.669981480987</v>
+      </c>
+      <c r="BP28" s="3">
+        <f t="shared" si="29"/>
+        <v>30334.263281666175</v>
+      </c>
+      <c r="BQ28" s="3">
+        <f t="shared" si="29"/>
+        <v>30030.920648849515</v>
+      </c>
+      <c r="BR28" s="3">
+        <f t="shared" si="29"/>
+        <v>29730.61144236102</v>
+      </c>
+      <c r="BS28" s="3">
+        <f t="shared" si="29"/>
+        <v>29433.305327937411</v>
+      </c>
+      <c r="BT28" s="3">
+        <f t="shared" si="29"/>
+        <v>29138.972274658037</v>
+      </c>
+      <c r="BU28" s="3">
+        <f t="shared" si="29"/>
+        <v>28847.582551911455</v>
+      </c>
+      <c r="BV28" s="3">
+        <f t="shared" si="29"/>
+        <v>28559.10672639234</v>
+      </c>
+      <c r="BW28" s="3">
+        <f t="shared" ref="BW28:DB28" si="30">+BV28*(1+$AS$32)</f>
+        <v>28273.515659128418</v>
+      </c>
+      <c r="BX28" s="3">
         <f t="shared" si="30"/>
-        <v>38609.020292330206</v>
-      </c>
-      <c r="AP28" s="3">
+        <v>27990.780502537134</v>
+      </c>
+      <c r="BY28" s="3">
         <f t="shared" si="30"/>
-        <v>38222.930089406902</v>
-      </c>
-      <c r="AQ28" s="3">
+        <v>27710.872697511764</v>
+      </c>
+      <c r="BZ28" s="3">
         <f t="shared" si="30"/>
-        <v>37840.700788512833</v>
-      </c>
-      <c r="AR28" s="3">
+        <v>27433.763970536646</v>
+      </c>
+      <c r="CA28" s="3">
         <f t="shared" si="30"/>
-        <v>37462.293780627704</v>
-      </c>
-      <c r="AS28" s="3">
+        <v>27159.42633083128</v>
+      </c>
+      <c r="CB28" s="3">
         <f t="shared" si="30"/>
-        <v>37087.670842821426</v>
-      </c>
-      <c r="AT28" s="3">
+        <v>26887.832067522966</v>
+      </c>
+      <c r="CC28" s="3">
         <f t="shared" si="30"/>
-        <v>36716.794134393211</v>
-      </c>
-      <c r="AU28" s="3">
+        <v>26618.953746847736</v>
+      </c>
+      <c r="CD28" s="3">
         <f t="shared" si="30"/>
-        <v>36349.626193049276</v>
-      </c>
-      <c r="AV28" s="3">
+        <v>26352.764209379256</v>
+      </c>
+      <c r="CE28" s="3">
         <f t="shared" si="30"/>
-        <v>35986.129931118783</v>
-      </c>
-      <c r="AW28" s="3">
+        <v>26089.236567285465</v>
+      </c>
+      <c r="CF28" s="3">
         <f t="shared" si="30"/>
-        <v>35626.268631807594</v>
-      </c>
-      <c r="AX28" s="3">
+        <v>25828.34420161261</v>
+      </c>
+      <c r="CG28" s="3">
         <f t="shared" si="30"/>
-        <v>35270.005945489516</v>
-      </c>
-      <c r="AY28" s="3">
+        <v>25570.060759596483</v>
+      </c>
+      <c r="CH28" s="3">
         <f t="shared" si="30"/>
-        <v>34917.305886034621</v>
-      </c>
-      <c r="AZ28" s="3">
+        <v>25314.360152000518</v>
+      </c>
+      <c r="CI28" s="3">
         <f t="shared" si="30"/>
-        <v>34568.132827174275</v>
-      </c>
-      <c r="BA28" s="3">
+        <v>25061.216550480513</v>
+      </c>
+      <c r="CJ28" s="3">
         <f t="shared" si="30"/>
-        <v>34222.451498902534</v>
-      </c>
-      <c r="BB28" s="3">
+        <v>24810.604384975708</v>
+      </c>
+      <c r="CK28" s="3">
         <f t="shared" si="30"/>
-        <v>33880.226983913512</v>
-      </c>
-      <c r="BC28" s="3">
+        <v>24562.498341125949</v>
+      </c>
+      <c r="CL28" s="3">
         <f t="shared" si="30"/>
-        <v>33541.424714074376</v>
-      </c>
-      <c r="BD28" s="3">
+        <v>24316.873357714689</v>
+      </c>
+      <c r="CM28" s="3">
         <f t="shared" si="30"/>
-        <v>33206.010466933629</v>
-      </c>
-      <c r="BE28" s="3">
+        <v>24073.704624137543</v>
+      </c>
+      <c r="CN28" s="3">
         <f t="shared" si="30"/>
-        <v>32873.950362264295</v>
-      </c>
-      <c r="BF28" s="3">
+        <v>23832.967577896168</v>
+      </c>
+      <c r="CO28" s="3">
         <f t="shared" si="30"/>
-        <v>32545.210858641651</v>
-      </c>
-      <c r="BG28" s="3">
+        <v>23594.637902117207</v>
+      </c>
+      <c r="CP28" s="3">
         <f t="shared" si="30"/>
-        <v>32219.758750055233</v>
-      </c>
-      <c r="BH28" s="3">
+        <v>23358.691523096033</v>
+      </c>
+      <c r="CQ28" s="3">
         <f t="shared" si="30"/>
-        <v>31897.561162554681</v>
-      </c>
-      <c r="BI28" s="3">
+        <v>23125.104607865072</v>
+      </c>
+      <c r="CR28" s="3">
         <f t="shared" si="30"/>
-        <v>31578.585550929132</v>
-      </c>
-      <c r="BJ28" s="3">
+        <v>22893.853561786422</v>
+      </c>
+      <c r="CS28" s="3">
         <f t="shared" si="30"/>
-        <v>31262.799695419842</v>
-      </c>
-      <c r="BK28" s="3">
+        <v>22664.915026168557</v>
+      </c>
+      <c r="CT28" s="3">
         <f t="shared" si="30"/>
-        <v>30950.171698465645</v>
-      </c>
-      <c r="BL28" s="3">
+        <v>22438.265875906873</v>
+      </c>
+      <c r="CU28" s="3">
         <f t="shared" si="30"/>
-        <v>30640.669981480987</v>
-      </c>
-      <c r="BM28" s="3">
+        <v>22213.883217147802</v>
+      </c>
+      <c r="CV28" s="3">
         <f t="shared" si="30"/>
-        <v>30334.263281666175</v>
-      </c>
-      <c r="BN28" s="3">
+        <v>21991.744384976326</v>
+      </c>
+      <c r="CW28" s="3">
         <f t="shared" si="30"/>
-        <v>30030.920648849515</v>
-      </c>
-      <c r="BO28" s="3">
+        <v>21771.826941126561</v>
+      </c>
+      <c r="CX28" s="3">
         <f t="shared" si="30"/>
-        <v>29730.61144236102</v>
-      </c>
-      <c r="BP28" s="3">
+        <v>21554.108671715294</v>
+      </c>
+      <c r="CY28" s="3">
         <f t="shared" si="30"/>
-        <v>29433.305327937411</v>
-      </c>
-      <c r="BQ28" s="3">
+        <v>21338.567584998142</v>
+      </c>
+      <c r="CZ28" s="3">
         <f t="shared" si="30"/>
-        <v>29138.972274658037</v>
-      </c>
-      <c r="BR28" s="3">
+        <v>21125.181909148159</v>
+      </c>
+      <c r="DA28" s="3">
         <f t="shared" si="30"/>
-        <v>28847.582551911455</v>
-      </c>
-      <c r="BS28" s="3">
+        <v>20913.930090056678</v>
+      </c>
+      <c r="DB28" s="3">
         <f t="shared" si="30"/>
-        <v>28559.10672639234</v>
-      </c>
-      <c r="BT28" s="3">
-        <f t="shared" ref="BT28:CY28" si="31">+BS28*(1+$AP$32)</f>
-        <v>28273.515659128418</v>
-      </c>
-      <c r="BU28" s="3">
+        <v>20704.790789156112</v>
+      </c>
+      <c r="DC28" s="3">
+        <f t="shared" ref="DC28:EM28" si="31">+DB28*(1+$AS$32)</f>
+        <v>20497.742881264552</v>
+      </c>
+      <c r="DD28" s="3">
         <f t="shared" si="31"/>
-        <v>27990.780502537134</v>
-      </c>
-      <c r="BV28" s="3">
+        <v>20292.765452451906</v>
+      </c>
+      <c r="DE28" s="3">
         <f t="shared" si="31"/>
-        <v>27710.872697511764</v>
-      </c>
-      <c r="BW28" s="3">
+        <v>20089.837797927386</v>
+      </c>
+      <c r="DF28" s="3">
         <f t="shared" si="31"/>
-        <v>27433.763970536646</v>
-      </c>
-      <c r="BX28" s="3">
+        <v>19888.939419948114</v>
+      </c>
+      <c r="DG28" s="3">
         <f t="shared" si="31"/>
-        <v>27159.42633083128</v>
-      </c>
-      <c r="BY28" s="3">
+        <v>19690.050025748631</v>
+      </c>
+      <c r="DH28" s="3">
         <f t="shared" si="31"/>
-        <v>26887.832067522966</v>
-      </c>
-      <c r="BZ28" s="3">
+        <v>19493.149525491146</v>
+      </c>
+      <c r="DI28" s="3">
         <f t="shared" si="31"/>
-        <v>26618.953746847736</v>
-      </c>
-      <c r="CA28" s="3">
+        <v>19298.218030236236</v>
+      </c>
+      <c r="DJ28" s="3">
         <f t="shared" si="31"/>
-        <v>26352.764209379256</v>
-      </c>
-      <c r="CB28" s="3">
+        <v>19105.235849933873</v>
+      </c>
+      <c r="DK28" s="3">
         <f t="shared" si="31"/>
-        <v>26089.236567285465</v>
-      </c>
-      <c r="CC28" s="3">
+        <v>18914.183491434535</v>
+      </c>
+      <c r="DL28" s="3">
         <f t="shared" si="31"/>
-        <v>25828.34420161261</v>
-      </c>
-      <c r="CD28" s="3">
+        <v>18725.041656520189</v>
+      </c>
+      <c r="DM28" s="3">
         <f t="shared" si="31"/>
-        <v>25570.060759596483</v>
-      </c>
-      <c r="CE28" s="3">
+        <v>18537.791239954986</v>
+      </c>
+      <c r="DN28" s="3">
         <f t="shared" si="31"/>
-        <v>25314.360152000518</v>
-      </c>
-      <c r="CF28" s="3">
+        <v>18352.413327555438</v>
+      </c>
+      <c r="DO28" s="3">
         <f t="shared" si="31"/>
-        <v>25061.216550480513</v>
-      </c>
-      <c r="CG28" s="3">
+        <v>18168.889194279884</v>
+      </c>
+      <c r="DP28" s="3">
         <f t="shared" si="31"/>
-        <v>24810.604384975708</v>
-      </c>
-      <c r="CH28" s="3">
+        <v>17987.200302337085</v>
+      </c>
+      <c r="DQ28" s="3">
         <f t="shared" si="31"/>
-        <v>24562.498341125949</v>
-      </c>
-      <c r="CI28" s="3">
+        <v>17807.328299313715</v>
+      </c>
+      <c r="DR28" s="3">
         <f t="shared" si="31"/>
-        <v>24316.873357714689</v>
-      </c>
-      <c r="CJ28" s="3">
+        <v>17629.255016320578</v>
+      </c>
+      <c r="DS28" s="3">
         <f t="shared" si="31"/>
-        <v>24073.704624137543</v>
-      </c>
-      <c r="CK28" s="3">
+        <v>17452.962466157373</v>
+      </c>
+      <c r="DT28" s="3">
         <f t="shared" si="31"/>
-        <v>23832.967577896168</v>
-      </c>
-      <c r="CL28" s="3">
+        <v>17278.4328414958</v>
+      </c>
+      <c r="DU28" s="3">
         <f t="shared" si="31"/>
-        <v>23594.637902117207</v>
-      </c>
-      <c r="CM28" s="3">
+        <v>17105.648513080843</v>
+      </c>
+      <c r="DV28" s="3">
         <f t="shared" si="31"/>
-        <v>23358.691523096033</v>
-      </c>
-      <c r="CN28" s="3">
+        <v>16934.592027950035</v>
+      </c>
+      <c r="DW28" s="3">
         <f t="shared" si="31"/>
-        <v>23125.104607865072</v>
-      </c>
-      <c r="CO28" s="3">
+        <v>16765.246107670533</v>
+      </c>
+      <c r="DX28" s="3">
         <f t="shared" si="31"/>
-        <v>22893.853561786422</v>
-      </c>
-      <c r="CP28" s="3">
+        <v>16597.593646593828</v>
+      </c>
+      <c r="DY28" s="3">
         <f t="shared" si="31"/>
-        <v>22664.915026168557</v>
-      </c>
-      <c r="CQ28" s="3">
+        <v>16431.617710127892</v>
+      </c>
+      <c r="DZ28" s="3">
         <f t="shared" si="31"/>
-        <v>22438.265875906873</v>
-      </c>
-      <c r="CR28" s="3">
+        <v>16267.301533026613</v>
+      </c>
+      <c r="EA28" s="3">
         <f t="shared" si="31"/>
-        <v>22213.883217147802</v>
-      </c>
-      <c r="CS28" s="3">
+        <v>16104.628517696347</v>
+      </c>
+      <c r="EB28" s="3">
         <f t="shared" si="31"/>
-        <v>21991.744384976326</v>
-      </c>
-      <c r="CT28" s="3">
+        <v>15943.582232519382</v>
+      </c>
+      <c r="EC28" s="3">
         <f t="shared" si="31"/>
-        <v>21771.826941126561</v>
-      </c>
-      <c r="CU28" s="3">
+        <v>15784.146410194187</v>
+      </c>
+      <c r="ED28" s="3">
         <f t="shared" si="31"/>
-        <v>21554.108671715294</v>
-      </c>
-      <c r="CV28" s="3">
+        <v>15626.304946092245</v>
+      </c>
+      <c r="EE28" s="3">
         <f t="shared" si="31"/>
-        <v>21338.567584998142</v>
-      </c>
-      <c r="CW28" s="3">
+        <v>15470.041896631323</v>
+      </c>
+      <c r="EF28" s="3">
         <f t="shared" si="31"/>
-        <v>21125.181909148159</v>
-      </c>
-      <c r="CX28" s="3">
+        <v>15315.34147766501</v>
+      </c>
+      <c r="EG28" s="3">
         <f t="shared" si="31"/>
-        <v>20913.930090056678</v>
-      </c>
-      <c r="CY28" s="3">
+        <v>15162.188062888359</v>
+      </c>
+      <c r="EH28" s="3">
         <f t="shared" si="31"/>
-        <v>20704.790789156112</v>
-      </c>
-      <c r="CZ28" s="3">
-        <f t="shared" ref="CZ28:EJ28" si="32">+CY28*(1+$AP$32)</f>
-        <v>20497.742881264552</v>
-      </c>
-      <c r="DA28" s="3">
-        <f t="shared" si="32"/>
-        <v>20292.765452451906</v>
-      </c>
-      <c r="DB28" s="3">
-        <f t="shared" si="32"/>
-        <v>20089.837797927386</v>
-      </c>
-      <c r="DC28" s="3">
-        <f t="shared" si="32"/>
-        <v>19888.939419948114</v>
-      </c>
-      <c r="DD28" s="3">
-        <f t="shared" si="32"/>
-        <v>19690.050025748631</v>
-      </c>
-      <c r="DE28" s="3">
-        <f t="shared" si="32"/>
-        <v>19493.149525491146</v>
-      </c>
-      <c r="DF28" s="3">
-        <f t="shared" si="32"/>
-        <v>19298.218030236236</v>
-      </c>
-      <c r="DG28" s="3">
-        <f t="shared" si="32"/>
-        <v>19105.235849933873</v>
-      </c>
-      <c r="DH28" s="3">
-        <f t="shared" si="32"/>
-        <v>18914.183491434535</v>
-      </c>
-      <c r="DI28" s="3">
-        <f t="shared" si="32"/>
-        <v>18725.041656520189</v>
-      </c>
-      <c r="DJ28" s="3">
-        <f t="shared" si="32"/>
-        <v>18537.791239954986</v>
-      </c>
-      <c r="DK28" s="3">
-        <f t="shared" si="32"/>
-        <v>18352.413327555438</v>
-      </c>
-      <c r="DL28" s="3">
-        <f t="shared" si="32"/>
-        <v>18168.889194279884</v>
-      </c>
-      <c r="DM28" s="3">
-        <f t="shared" si="32"/>
-        <v>17987.200302337085</v>
-      </c>
-      <c r="DN28" s="3">
-        <f t="shared" si="32"/>
-        <v>17807.328299313715</v>
-      </c>
-      <c r="DO28" s="3">
-        <f t="shared" si="32"/>
-        <v>17629.255016320578</v>
-      </c>
-      <c r="DP28" s="3">
-        <f t="shared" si="32"/>
-        <v>17452.962466157373</v>
-      </c>
-      <c r="DQ28" s="3">
-        <f t="shared" si="32"/>
-        <v>17278.4328414958</v>
-      </c>
-      <c r="DR28" s="3">
-        <f t="shared" si="32"/>
-        <v>17105.648513080843</v>
-      </c>
-      <c r="DS28" s="3">
-        <f t="shared" si="32"/>
-        <v>16934.592027950035</v>
-      </c>
-      <c r="DT28" s="3">
-        <f t="shared" si="32"/>
-        <v>16765.246107670533</v>
-      </c>
-      <c r="DU28" s="3">
-        <f t="shared" si="32"/>
-        <v>16597.593646593828</v>
-      </c>
-      <c r="DV28" s="3">
-        <f t="shared" si="32"/>
-        <v>16431.617710127892</v>
-      </c>
-      <c r="DW28" s="3">
-        <f t="shared" si="32"/>
-        <v>16267.301533026613</v>
-      </c>
-      <c r="DX28" s="3">
-        <f t="shared" si="32"/>
-        <v>16104.628517696347</v>
-      </c>
-      <c r="DY28" s="3">
-        <f t="shared" si="32"/>
-        <v>15943.582232519382</v>
-      </c>
-      <c r="DZ28" s="3">
-        <f t="shared" si="32"/>
-        <v>15784.146410194187</v>
-      </c>
-      <c r="EA28" s="3">
-        <f t="shared" si="32"/>
-        <v>15626.304946092245</v>
-      </c>
-      <c r="EB28" s="3">
-        <f t="shared" si="32"/>
-        <v>15470.041896631323</v>
-      </c>
-      <c r="EC28" s="3">
-        <f t="shared" si="32"/>
-        <v>15315.34147766501</v>
-      </c>
-      <c r="ED28" s="3">
-        <f t="shared" si="32"/>
-        <v>15162.188062888359</v>
-      </c>
-      <c r="EE28" s="3">
-        <f t="shared" si="32"/>
         <v>15010.566182259476</v>
       </c>
-      <c r="EF28" s="3">
-        <f t="shared" si="32"/>
+      <c r="EI28" s="3">
+        <f t="shared" si="31"/>
         <v>14860.46052043688</v>
       </c>
-      <c r="EG28" s="3">
-        <f t="shared" si="32"/>
+      <c r="EJ28" s="3">
+        <f t="shared" si="31"/>
         <v>14711.855915232511</v>
       </c>
-      <c r="EH28" s="3">
-        <f t="shared" si="32"/>
+      <c r="EK28" s="3">
+        <f t="shared" si="31"/>
         <v>14564.737356080186</v>
       </c>
-      <c r="EI28" s="3">
-        <f t="shared" si="32"/>
+      <c r="EL28" s="3">
+        <f t="shared" si="31"/>
         <v>14419.089982519385</v>
       </c>
-      <c r="EJ28" s="3">
-        <f t="shared" si="32"/>
+      <c r="EM28" s="3">
+        <f t="shared" si="31"/>
         <v>14274.89908269419</v>
       </c>
     </row>
-    <row r="29" spans="2:140" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:143" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29" si="33">+C28/C30</f>
+        <f t="shared" ref="C29" si="32">+C28/C30</f>
         <v>2.4408602150537635</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:F29" si="34">+D28/D30</f>
+        <f t="shared" ref="D29:F29" si="33">+D28/D30</f>
         <v>2.9338731443994601</v>
       </c>
       <c r="E29" s="5">
+        <f t="shared" si="33"/>
+        <v>3.3437926330150067</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="33"/>
+        <v>4.0399449035812669</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29:H29" si="34">+G28/G30</f>
+        <v>3.3753462603878117</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="34"/>
-        <v>3.3437926330150067</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="34"/>
-        <v>4.0399449035812669</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" ref="G29:H29" si="35">+G28/G30</f>
-        <v>3.3753462603878117</v>
-      </c>
-      <c r="H29" s="5">
+        <v>4.2050209205020916</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ref="I29:J29" si="35">+I28/I30</f>
+        <v>3.535966149506347</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="35"/>
-        <v>4.2050209205020916</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" ref="I29:J29" si="36">+I28/I30</f>
-        <v>3.535966149506347</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="36"/>
         <v>3.0823863636363638</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29" si="37">+K28/K30</f>
+        <f t="shared" ref="K29" si="36">+K28/K30</f>
         <v>3.6809116809116809</v>
       </c>
-      <c r="R29" s="5">
-        <f t="shared" ref="R29:W29" si="38">+R28/R30</f>
+      <c r="U29" s="5">
+        <f t="shared" ref="U29:Z29" si="37">+U28/U30</f>
         <v>8.1433734939759042</v>
       </c>
-      <c r="S29" s="5">
-        <f t="shared" si="38"/>
+      <c r="V29" s="5">
+        <f t="shared" si="37"/>
         <v>3.8895781637717119</v>
       </c>
-      <c r="T29" s="5">
-        <f t="shared" si="38"/>
+      <c r="W29" s="5">
+        <f t="shared" si="37"/>
         <v>10.20253164556962</v>
       </c>
-      <c r="U29" s="5">
-        <f t="shared" si="38"/>
+      <c r="X29" s="5">
+        <f t="shared" si="37"/>
         <v>9.9920212765957448</v>
       </c>
-      <c r="V29" s="5">
-        <f t="shared" si="38"/>
+      <c r="Y29" s="5">
+        <f t="shared" si="37"/>
         <v>12.736413043478262</v>
       </c>
-      <c r="W29" s="5">
-        <f t="shared" si="38"/>
+      <c r="Z29" s="5">
+        <f t="shared" si="37"/>
         <v>14.20617110799439</v>
       </c>
-      <c r="X29" s="5">
-        <f t="shared" ref="X29" si="39">+X28/X30</f>
+      <c r="AA29" s="5">
+        <f t="shared" ref="AA29" si="38">+AA28/AA30</f>
         <v>15.909026647966344</v>
       </c>
     </row>
-    <row r="30" spans="2:140" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:143" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>733</v>
       </c>
       <c r="F30">
-        <f>+(V30*4)-SUM(C30:E30)</f>
+        <f>+(Y30*4)-SUM(C30:E30)</f>
         <v>726</v>
       </c>
       <c r="G30" s="1">
@@ -3879,450 +3879,450 @@
         <v>709</v>
       </c>
       <c r="J30">
-        <f>+(W30*4)-SUM(G30:I30)</f>
+        <f>+(Z30*4)-SUM(G30:I30)</f>
         <v>704</v>
       </c>
       <c r="K30" s="1">
         <v>702</v>
       </c>
-      <c r="R30" s="1">
+      <c r="U30" s="1">
         <v>830</v>
       </c>
-      <c r="S30" s="1">
+      <c r="V30" s="1">
         <v>806</v>
       </c>
-      <c r="T30" s="1">
+      <c r="W30" s="1">
         <v>790</v>
       </c>
-      <c r="U30" s="1">
+      <c r="X30" s="1">
         <v>752</v>
       </c>
-      <c r="V30" s="1">
+      <c r="Y30" s="1">
         <v>736</v>
       </c>
-      <c r="W30" s="1">
+      <c r="Z30" s="1">
         <v>713</v>
       </c>
-      <c r="X30" s="1">
+      <c r="AA30" s="1">
         <v>713</v>
       </c>
     </row>
-    <row r="32" spans="2:140" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32" si="40">+C26/C18</f>
+        <f t="shared" ref="C32" si="39">+C26/C18</f>
         <v>0.16384394374716468</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:E32" si="41">+D26/D18</f>
+        <f t="shared" ref="D32:E32" si="40">+D26/D18</f>
         <v>0.19731524249422633</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.21911224201300536</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" ref="F32" si="42">+F26/F18</f>
+        <f t="shared" ref="F32" si="41">+F26/F18</f>
         <v>0.24453418743907535</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" ref="G32:H32" si="43">+G26/G18</f>
+        <f t="shared" ref="G32:H32" si="42">+G26/G18</f>
         <v>0.21641893751720342</v>
       </c>
       <c r="H32" s="4">
+        <f t="shared" si="42"/>
+        <v>0.25157650182542318</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" ref="I32:J32" si="43">+I26/I18</f>
+        <v>0.20968586387434554</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="43"/>
-        <v>0.25157650182542318</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" ref="I32:J32" si="44">+I26/I18</f>
-        <v>0.20968586387434554</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="44"/>
         <v>0.17347516837666016</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" ref="K32" si="45">+K26/K18</f>
+        <f t="shared" ref="K32" si="44">+K26/K18</f>
         <v>0.21053297085414427</v>
       </c>
-      <c r="R32" s="4">
-        <f t="shared" ref="R32:AM32" si="46">+R26/R18</f>
+      <c r="U32" s="4">
+        <f t="shared" ref="U32:AP32" si="45">+U26/U18</f>
         <v>0.21081459620338644</v>
       </c>
-      <c r="S32" s="4">
-        <f t="shared" si="46"/>
+      <c r="V32" s="4">
+        <f t="shared" si="45"/>
         <v>0.13700290206333515</v>
       </c>
-      <c r="T32" s="4">
-        <f t="shared" si="46"/>
+      <c r="W32" s="4">
+        <f t="shared" si="45"/>
         <v>0.24404666773214001</v>
       </c>
-      <c r="U32" s="4">
-        <f t="shared" si="46"/>
+      <c r="X32" s="4">
+        <f t="shared" si="45"/>
         <v>0.18912786108918705</v>
       </c>
-      <c r="V32" s="4">
-        <f t="shared" si="46"/>
+      <c r="Y32" s="4">
+        <f t="shared" si="45"/>
         <v>0.20709814361778672</v>
       </c>
-      <c r="W32" s="4">
-        <f t="shared" si="46"/>
+      <c r="Z32" s="4">
+        <f t="shared" si="45"/>
         <v>0.21221446909354222</v>
       </c>
-      <c r="X32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AA32" s="4">
+        <f t="shared" si="45"/>
         <v>0.21807858440530153</v>
       </c>
-      <c r="Y32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AB32" s="4">
+        <f t="shared" si="45"/>
         <v>0.227616355927035</v>
       </c>
-      <c r="Z32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AC32" s="4">
+        <f t="shared" si="45"/>
         <v>0.23624889507081956</v>
       </c>
-      <c r="AA32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AD32" s="4">
+        <f t="shared" si="45"/>
         <v>0.24400040734415768</v>
       </c>
-      <c r="AB32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AE32" s="4">
+        <f t="shared" si="45"/>
         <v>0.25089306249384202</v>
       </c>
-      <c r="AC32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AF32" s="4">
+        <f t="shared" si="45"/>
         <v>0.2569470591127801</v>
       </c>
-      <c r="AD32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AG32" s="4">
+        <f t="shared" si="45"/>
         <v>0.26218068404130446</v>
       </c>
-      <c r="AE32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AH32" s="4">
+        <f t="shared" si="45"/>
         <v>0.26661036675078781</v>
       </c>
-      <c r="AF32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AI32" s="4">
+        <f t="shared" si="45"/>
         <v>0.2702507288832649</v>
       </c>
-      <c r="AG32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AJ32" s="4">
+        <f t="shared" si="45"/>
         <v>0.27311462910723283</v>
       </c>
-      <c r="AH32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AK32" s="4">
+        <f t="shared" si="45"/>
         <v>0.2752132034367869</v>
       </c>
-      <c r="AI32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AL32" s="4">
+        <f t="shared" si="45"/>
         <v>0.27655590114872552</v>
       </c>
-      <c r="AJ32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AM32" s="4">
+        <f t="shared" si="45"/>
         <v>0.27715051642020183</v>
       </c>
-      <c r="AK32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AN32" s="4">
+        <f t="shared" si="45"/>
         <v>0.2770032157978336</v>
       </c>
-      <c r="AL32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AO32" s="4">
+        <f t="shared" si="45"/>
         <v>0.2761185615979399</v>
       </c>
-      <c r="AM32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AP32" s="4">
+        <f t="shared" si="45"/>
         <v>0.27449953132664773</v>
       </c>
-      <c r="AO32" s="1" t="s">
+      <c r="AR32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP32" s="4">
+      <c r="AS32" s="4">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="47">+C28/C18</f>
+        <f t="shared" ref="C33" si="46">+C28/C18</f>
         <v>0.13730530772720398</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:E33" si="48">+D28/D18</f>
+        <f t="shared" ref="D33:E33" si="47">+D28/D18</f>
         <v>0.15689953810623555</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0.17324003392705684</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" ref="F33" si="49">+F28/F18</f>
+        <f t="shared" ref="F33" si="48">+F28/F18</f>
         <v>0.20421946804066285</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:H33" si="50">+G28/G18</f>
+        <f t="shared" ref="G33:H33" si="49">+G28/G18</f>
         <v>0.16769887145609688</v>
       </c>
       <c r="H33" s="4">
+        <f t="shared" si="49"/>
+        <v>0.20013275804845668</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" ref="I33:J33" si="50">+I28/I18</f>
+        <v>0.16407068062827226</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="50"/>
-        <v>0.20013275804845668</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" ref="I33:J33" si="51">+I28/I18</f>
-        <v>0.16407068062827226</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="51"/>
         <v>0.13658966450557058</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="52">+K28/K18</f>
+        <f t="shared" ref="K33" si="51">+K28/K18</f>
         <v>0.16336852753366632</v>
       </c>
-      <c r="R33" s="4">
-        <f t="shared" ref="R33:AM33" si="53">+R28/R18</f>
+      <c r="U33" s="4">
+        <f t="shared" ref="U33:AP33" si="52">+U28/U18</f>
         <v>0.16904684490908636</v>
       </c>
-      <c r="S33" s="4">
-        <f t="shared" si="53"/>
+      <c r="V33" s="4">
+        <f t="shared" si="52"/>
         <v>9.9977676435883539E-2</v>
       </c>
-      <c r="T33" s="4">
-        <f t="shared" si="53"/>
+      <c r="W33" s="4">
+        <f t="shared" si="52"/>
         <v>0.1840224662663531</v>
       </c>
-      <c r="U33" s="4">
-        <f t="shared" si="53"/>
+      <c r="X33" s="4">
+        <f t="shared" si="52"/>
         <v>0.14826361483820047</v>
       </c>
-      <c r="V33" s="4">
-        <f t="shared" si="53"/>
+      <c r="Y33" s="4">
+        <f t="shared" si="52"/>
         <v>0.16862138437185206</v>
       </c>
-      <c r="W33" s="4">
-        <f t="shared" si="53"/>
+      <c r="Z33" s="4">
+        <f t="shared" si="52"/>
         <v>0.16669409518794023</v>
       </c>
-      <c r="X33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AA33" s="4">
+        <f t="shared" si="52"/>
         <v>0.17446286752424123</v>
       </c>
-      <c r="Y33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AB33" s="4">
+        <f t="shared" si="52"/>
         <v>0.18209308474162803</v>
       </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AC33" s="4">
+        <f t="shared" si="52"/>
         <v>0.18899911605665565</v>
       </c>
-      <c r="AA33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AD33" s="4">
+        <f t="shared" si="52"/>
         <v>0.19520032587532615</v>
       </c>
-      <c r="AB33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AE33" s="4">
+        <f t="shared" si="52"/>
         <v>0.2007144499950736</v>
       </c>
-      <c r="AC33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AF33" s="4">
+        <f t="shared" si="52"/>
         <v>0.20555764729022408</v>
       </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AG33" s="4">
+        <f t="shared" si="52"/>
         <v>0.20974454723304356</v>
       </c>
-      <c r="AE33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AH33" s="4">
+        <f t="shared" si="52"/>
         <v>0.21328829340063024</v>
       </c>
-      <c r="AF33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AI33" s="4">
+        <f t="shared" si="52"/>
         <v>0.21620058310661192</v>
       </c>
-      <c r="AG33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AJ33" s="4">
+        <f t="shared" si="52"/>
         <v>0.21849170328578627</v>
       </c>
-      <c r="AH33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AK33" s="4">
+        <f t="shared" si="52"/>
         <v>0.22017056274942953</v>
       </c>
-      <c r="AI33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AL33" s="4">
+        <f t="shared" si="52"/>
         <v>0.22124472091898043</v>
       </c>
-      <c r="AJ33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AM33" s="4">
+        <f t="shared" si="52"/>
         <v>0.22172041313616148</v>
       </c>
-      <c r="AK33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AN33" s="4">
+        <f t="shared" si="52"/>
         <v>0.22160257263826685</v>
       </c>
-      <c r="AL33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AO33" s="4">
+        <f t="shared" si="52"/>
         <v>0.2208948492783519</v>
       </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="53"/>
+      <c r="AP33" s="4">
+        <f t="shared" si="52"/>
         <v>0.21959962506131819</v>
       </c>
-      <c r="AO33" s="1" t="s">
+      <c r="AR33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AP33" s="4">
+      <c r="AS33" s="4">
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ref="C34" si="54">+C27/C26</f>
+        <f t="shared" ref="C34" si="53">+C27/C26</f>
         <v>0.16197508075680664</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:E34" si="55">+D27/D26</f>
+        <f t="shared" ref="D34:E34" si="54">+D27/D26</f>
         <v>0.20482809070958302</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>0.20935483870967742</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34" si="56">+F27/F26</f>
+        <f t="shared" ref="F34" si="55">+F27/F26</f>
         <v>0.16486332574031889</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:H34" si="57">+G27/G26</f>
+        <f t="shared" ref="G34:H34" si="56">+G27/G26</f>
         <v>0.22511923688394275</v>
       </c>
       <c r="H34" s="4">
+        <f t="shared" si="56"/>
+        <v>0.20448548812664907</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34:J34" si="57">+I27/I26</f>
+        <v>0.21754057428214732</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="57"/>
-        <v>0.20448548812664907</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" ref="I34:J34" si="58">+I27/I26</f>
-        <v>0.21754057428214732</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="58"/>
         <v>0.21262699564586357</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" ref="K34" si="59">+K27/K26</f>
+        <f t="shared" ref="K34" si="58">+K27/K26</f>
         <v>0.22402402402402402</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:AM34" si="60">+R27/R26</f>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:AP34" si="59">+U27/U26</f>
         <v>0.19812551904140469</v>
       </c>
-      <c r="S34" s="4">
-        <f t="shared" si="60"/>
+      <c r="V34" s="4">
+        <f t="shared" si="59"/>
         <v>0.27025139664804471</v>
       </c>
-      <c r="T34" s="4">
-        <f t="shared" si="60"/>
+      <c r="W34" s="4">
+        <f t="shared" si="59"/>
         <v>0.24595378426419684</v>
       </c>
-      <c r="U34" s="4">
-        <f t="shared" si="60"/>
+      <c r="X34" s="4">
+        <f t="shared" si="59"/>
         <v>0.21606677099634847</v>
       </c>
-      <c r="V34" s="4">
-        <f t="shared" si="60"/>
+      <c r="Y34" s="4">
+        <f t="shared" si="59"/>
         <v>0.1857899765482498</v>
       </c>
-      <c r="W34" s="4">
-        <f t="shared" si="60"/>
+      <c r="Z34" s="4">
+        <f t="shared" si="59"/>
         <v>0.21450174486234974</v>
       </c>
-      <c r="X34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AA34" s="4">
+        <f t="shared" si="59"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="Y34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AB34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="Z34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AC34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AA34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AD34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AB34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AE34" s="4">
+        <f t="shared" si="59"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AC34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AF34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AD34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AG34" s="4">
+        <f t="shared" si="59"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AE34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AH34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AF34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AI34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AG34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AJ34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AH34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AK34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AI34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AL34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AJ34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AM34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AK34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AN34" s="4">
+        <f t="shared" si="59"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AL34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AO34" s="4">
+        <f t="shared" si="59"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AM34" s="4">
-        <f t="shared" si="60"/>
+      <c r="AP34" s="4">
+        <f t="shared" si="59"/>
         <v>0.2</v>
       </c>
-      <c r="AO34" s="1" t="s">
+      <c r="AR34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP34" s="1">
-        <f>+NPV(AP33,X28:EJ28)+Main!L6-Main!L7</f>
+      <c r="AS34" s="1">
+        <f>+NPV(AS33,AA28:EM28)+Main!L6-Main!L7</f>
         <v>271555.27451837546</v>
       </c>
     </row>
-    <row r="35" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AO35" s="4" t="s">
+    <row r="35" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AP35" s="1">
-        <f>+AP34/Main!L4</f>
+      <c r="AS35" s="1">
+        <f>+AS34/Main!L4</f>
         <v>387.61003228380639</v>
       </c>
     </row>
-    <row r="36" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
@@ -4346,44 +4346,32 @@
         <f>+K16/G16-1</f>
         <v>6.3233559836019637E-2</v>
       </c>
-      <c r="R36" s="6" t="e">
-        <f t="shared" ref="R36:AM36" si="61">+R18/Q18-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="6">
-        <f t="shared" ref="S36:V36" si="62">+S16/R16-1</f>
+      <c r="U36" s="6" t="e">
+        <f>+U18/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" ref="V36:Y36" si="60">+V16/U16-1</f>
         <v>-1.8077413866439795E-2</v>
       </c>
-      <c r="T36" s="6">
-        <f t="shared" si="62"/>
+      <c r="W36" s="6">
+        <f t="shared" si="60"/>
         <v>-5.4299328568334415E-2</v>
       </c>
-      <c r="U36" s="6">
-        <f t="shared" si="62"/>
+      <c r="X36" s="6">
+        <f t="shared" si="60"/>
         <v>0.27396193573506178</v>
       </c>
-      <c r="V36" s="6">
-        <f t="shared" si="62"/>
+      <c r="Y36" s="6">
+        <f t="shared" si="60"/>
         <v>0.21103820224719105</v>
       </c>
-      <c r="W36" s="6">
-        <f>+W16/V16-1</f>
+      <c r="Z36" s="6">
+        <f>+Z16/Y16-1</f>
         <v>0.10149337925301349</v>
       </c>
-      <c r="X36" s="6">
-        <f t="shared" si="61"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="Y36" s="6">
-        <f t="shared" si="61"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="Z36" s="6">
-        <f t="shared" si="61"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
       <c r="AA36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="AA36:AP36" si="61">+AA18/Z18-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AB36" s="6">
@@ -4434,152 +4422,164 @@
         <f t="shared" si="61"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AO36" s="4" t="s">
+      <c r="AN36" s="6">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AO36" s="6">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AP36" s="6">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AR36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AP36" s="4">
-        <f>+AP35/Main!L3-1</f>
+      <c r="AS36" s="4">
+        <f>+AS35/Main!L3-1</f>
         <v>0.54235817231230898</v>
       </c>
     </row>
-    <row r="38" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="1">
+      <c r="U38" s="1">
         <v>13632</v>
       </c>
-      <c r="S38" s="1">
+      <c r="V38" s="1">
         <v>5591</v>
       </c>
-      <c r="T38" s="1">
+      <c r="W38" s="1">
         <v>14645</v>
       </c>
-      <c r="U38" s="1">
+      <c r="X38" s="1">
         <v>21079</v>
       </c>
-      <c r="V38" s="1">
+      <c r="Y38" s="1">
         <v>18559</v>
       </c>
-      <c r="W38" s="1">
+      <c r="Z38" s="1">
         <v>14050</v>
       </c>
     </row>
-    <row r="39" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="1">
+      <c r="U39" s="1">
         <v>-1645</v>
       </c>
-      <c r="S39" s="1">
+      <c r="V39" s="1">
         <v>-1478</v>
       </c>
-      <c r="T39" s="1">
+      <c r="W39" s="1">
         <v>-1550</v>
       </c>
-      <c r="U39" s="1">
+      <c r="X39" s="1">
         <v>-1855</v>
       </c>
-      <c r="V39" s="1">
+      <c r="Y39" s="1">
         <v>-1563</v>
       </c>
-      <c r="W39" s="1">
+      <c r="Z39" s="1">
         <v>-1911</v>
       </c>
-      <c r="AO39" s="5"/>
-    </row>
-    <row r="40" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR39" s="5"/>
+    </row>
+    <row r="40" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40:K40" si="63">+E38+E39</f>
+        <f t="shared" ref="E40:K40" si="62">+E38+E39</f>
         <v>0</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" ref="U40:Z40" si="63">+U38+U39</f>
+        <v>11987</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+        <v>4113</v>
+      </c>
+      <c r="W40" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
+        <v>13095</v>
+      </c>
+      <c r="X40" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
+        <v>19224</v>
+      </c>
+      <c r="Y40" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
+        <v>16996</v>
+      </c>
+      <c r="Z40" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <f t="shared" ref="R40:W40" si="64">+R38+R39</f>
-        <v>11987</v>
-      </c>
-      <c r="S40" s="1">
-        <f t="shared" si="64"/>
-        <v>4113</v>
-      </c>
-      <c r="T40" s="1">
-        <f t="shared" si="64"/>
-        <v>13095</v>
-      </c>
-      <c r="U40" s="1">
-        <f t="shared" si="64"/>
-        <v>19224</v>
-      </c>
-      <c r="V40" s="1">
-        <f t="shared" si="64"/>
-        <v>16996</v>
-      </c>
-      <c r="W40" s="1">
-        <f t="shared" si="64"/>
         <v>12139</v>
       </c>
     </row>
-    <row r="41" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AO41" s="4"/>
-    </row>
-    <row r="42" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR41" s="4"/>
+    </row>
+    <row r="42" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W42" s="1">
-        <f>+W28</f>
+      <c r="Z42" s="1">
+        <f>+Z28</f>
         <v>10129</v>
       </c>
-      <c r="AO42" s="4"/>
-    </row>
-    <row r="43" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR42" s="4"/>
+    </row>
+    <row r="43" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="1">
-        <f>+W55+W58</f>
+      <c r="Z43" s="1">
+        <f>+Z55+Z58</f>
         <v>81353</v>
       </c>
-      <c r="AP43" s="4"/>
-    </row>
-    <row r="44" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS43" s="4"/>
+    </row>
+    <row r="44" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W44" s="4">
-        <f>+W42/W43</f>
+      <c r="Z44" s="4">
+        <f>+Z42/Z43</f>
         <v>0.12450677909849668</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
@@ -4591,76 +4591,76 @@
         <f>+K47-K55</f>
         <v>823</v>
       </c>
-      <c r="W46" s="1">
-        <f>+W47-W55</f>
+      <c r="Z46" s="1">
+        <f>+Z47-Z55</f>
         <v>-9209</v>
       </c>
-      <c r="X46" s="1">
-        <f t="shared" ref="X46:AM46" si="65">+W46+X28</f>
+      <c r="AA46" s="1">
+        <f t="shared" ref="AA46:AP46" si="64">+Z46+AA28</f>
         <v>2134.1360000000041</v>
       </c>
-      <c r="Y46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AB46" s="1">
+        <f t="shared" si="64"/>
         <v>14802.115840000008</v>
       </c>
-      <c r="Z46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AC46" s="1">
+        <f t="shared" si="64"/>
         <v>28870.928969600012</v>
       </c>
-      <c r="AA46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AD46" s="1">
+        <f t="shared" si="64"/>
         <v>44418.480473632022</v>
       </c>
-      <c r="AB46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AE46" s="1">
+        <f t="shared" si="64"/>
         <v>61524.299899659229</v>
       </c>
-      <c r="AC46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AF46" s="1">
+        <f t="shared" si="64"/>
         <v>80269.179682908012</v>
       </c>
-      <c r="AD46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AG46" s="1">
+        <f t="shared" si="64"/>
         <v>100734.73239353535</v>
       </c>
-      <c r="AE46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AH46" s="1">
+        <f t="shared" si="64"/>
         <v>123002.85459049253</v>
       </c>
-      <c r="AF46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AI46" s="1">
+        <f t="shared" si="64"/>
         <v>147155.08344372976</v>
       </c>
-      <c r="AG46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AJ46" s="1">
+        <f t="shared" si="64"/>
         <v>173271.83045975419</v>
       </c>
-      <c r="AH46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AK46" s="1">
+        <f t="shared" si="64"/>
         <v>201431.47458955497</v>
       </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AL46" s="1">
+        <f t="shared" si="64"/>
         <v>231709.29468455832</v>
       </c>
-      <c r="AJ46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AM46" s="1">
+        <f t="shared" si="64"/>
         <v>264176.21866409061</v>
       </c>
-      <c r="AK46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AN46" s="1">
+        <f t="shared" si="64"/>
         <v>298897.36383151269</v>
       </c>
-      <c r="AL46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AO46" s="1">
+        <f t="shared" si="64"/>
         <v>335930.33948618884</v>
       </c>
-      <c r="AM46" s="1">
-        <f t="shared" si="65"/>
+      <c r="AP46" s="1">
+        <f t="shared" si="64"/>
         <v>375323.27928042435</v>
       </c>
     </row>
-    <row r="47" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
@@ -4672,12 +4672,12 @@
         <f>52508+1110</f>
         <v>53618</v>
       </c>
-      <c r="W47" s="1">
+      <c r="Z47" s="1">
         <f>40640+1240</f>
         <v>41880</v>
       </c>
     </row>
-    <row r="48" spans="2:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
@@ -4687,11 +4687,11 @@
       <c r="K48" s="1">
         <v>58355</v>
       </c>
-      <c r="W48" s="1">
+      <c r="Z48" s="1">
         <v>59240</v>
       </c>
     </row>
-    <row r="49" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
@@ -4703,12 +4703,12 @@
         <f>133611+776+9434</f>
         <v>143821</v>
       </c>
-      <c r="W49" s="1">
+      <c r="Z49" s="1">
         <f>133995+758+9038</f>
         <v>143791</v>
       </c>
     </row>
-    <row r="50" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4718,11 +4718,11 @@
       <c r="K50" s="1">
         <v>5383</v>
       </c>
-      <c r="W50" s="1">
+      <c r="Z50" s="1">
         <v>5371</v>
       </c>
     </row>
-    <row r="51" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
@@ -4732,11 +4732,11 @@
       <c r="K51" s="1">
         <v>21067</v>
       </c>
-      <c r="W51" s="1">
+      <c r="Z51" s="1">
         <v>21179</v>
       </c>
     </row>
-    <row r="52" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
@@ -4748,12 +4748,12 @@
         <f>+SUM(K47:K51)</f>
         <v>282244</v>
       </c>
-      <c r="W52" s="3">
-        <f>+SUM(W47:W51)</f>
+      <c r="Z52" s="3">
+        <f>+SUM(Z47:Z51)</f>
         <v>271461</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -4763,11 +4763,11 @@
       <c r="K53" s="1">
         <v>146396</v>
       </c>
-      <c r="W53" s="1">
+      <c r="Z53" s="1">
         <v>139413</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4777,11 +4777,11 @@
       <c r="K54" s="1">
         <v>13564</v>
       </c>
-      <c r="W54" s="1">
+      <c r="Z54" s="1">
         <v>13884</v>
       </c>
     </row>
-    <row r="55" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
@@ -4793,12 +4793,12 @@
         <f>1559+51236</f>
         <v>52795</v>
       </c>
-      <c r="W55" s="1">
+      <c r="Z55" s="1">
         <f>1374+49715</f>
         <v>51089</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
@@ -4808,11 +4808,11 @@
       <c r="K56" s="1">
         <v>38287</v>
       </c>
-      <c r="W56" s="1">
+      <c r="Z56" s="1">
         <v>36811</v>
       </c>
     </row>
-    <row r="57" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>2</v>
       </c>
@@ -4824,12 +4824,12 @@
         <f>+SUM(K53:K56)</f>
         <v>251042</v>
       </c>
-      <c r="W57" s="3">
-        <f>+SUM(W53:W56)</f>
+      <c r="Z57" s="3">
+        <f>+SUM(Z53:Z56)</f>
         <v>241197</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -4839,11 +4839,11 @@
       <c r="K58" s="1">
         <v>31202</v>
       </c>
-      <c r="W58" s="1">
+      <c r="Z58" s="1">
         <v>30264</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
@@ -4855,12 +4855,12 @@
         <f>+K57+K58</f>
         <v>282244</v>
       </c>
-      <c r="W59" s="1">
-        <f>+W58+W57</f>
+      <c r="Z59" s="1">
+        <f>+Z58+Z57</f>
         <v>271461</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="62" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="63" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="67" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>20</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>11790</v>
       </c>
       <c r="F69" s="3">
-        <f>+V69-SUM(C69:E69)</f>
+        <f>+Y69-SUM(C69:E69)</f>
         <v>3600</v>
       </c>
       <c r="G69" s="3">
@@ -4980,24 +4980,24 @@
         <v>8272</v>
       </c>
       <c r="J69" s="3">
-        <f>+W69-SUM(G69:I69)</f>
+        <f>+Z69-SUM(G69:I69)</f>
         <v>-9858</v>
       </c>
       <c r="K69" s="3">
         <f>+SUM(K62:K68)</f>
         <v>4764</v>
       </c>
-      <c r="U69" s="3">
+      <c r="X69" s="3">
         <v>21079</v>
       </c>
-      <c r="V69" s="3">
+      <c r="Y69" s="3">
         <v>18559</v>
       </c>
-      <c r="W69" s="3">
+      <c r="Z69" s="3">
         <v>14050</v>
       </c>
     </row>
-    <row r="71" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="73" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>18</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>-1137</v>
       </c>
       <c r="F73" s="3">
-        <f>+V73-SUM(C73:E73)</f>
+        <f>+Y73-SUM(C73:E73)</f>
         <v>670</v>
       </c>
       <c r="G73" s="3">
@@ -5048,23 +5048,23 @@
         <v>-1416</v>
       </c>
       <c r="J73" s="3">
-        <f>+W73-SUM(G73:I73)</f>
+        <f>+Z73-SUM(G73:I73)</f>
         <v>862</v>
       </c>
       <c r="K73" s="3">
         <v>-430</v>
       </c>
-      <c r="U73" s="3">
+      <c r="X73" s="3">
         <v>-1855</v>
       </c>
-      <c r="V73" s="3">
+      <c r="Y73" s="3">
         <v>-1563</v>
       </c>
-      <c r="W73" s="3">
+      <c r="Z73" s="3">
         <v>-1911</v>
       </c>
     </row>
-    <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>69</v>
       </c>
@@ -5077,8 +5077,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>6973</v>
       </c>
     </row>
-    <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>70</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>-1208</v>
       </c>
     </row>
-    <row r="80" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>72</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>-509</v>
       </c>
     </row>
-    <row r="81" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>6643</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>74</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>75</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>11868</v>
       </c>
     </row>
-    <row r="85" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>17</v>
       </c>
@@ -5185,47 +5185,47 @@
         <v>2810</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" ref="E85:K85" si="66">+E69+E73</f>
+        <f t="shared" ref="E85:K85" si="65">+E69+E73</f>
         <v>10653</v>
       </c>
       <c r="F85" s="3">
+        <f t="shared" si="65"/>
+        <v>4270</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="65"/>
+        <v>5156</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="65"/>
+        <v>9123</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="65"/>
+        <v>6856</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="65"/>
+        <v>-8996</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" si="65"/>
+        <v>4334</v>
+      </c>
+      <c r="X85" s="3">
+        <f t="shared" ref="X85:Y85" si="66">+X69+X73</f>
+        <v>19224</v>
+      </c>
+      <c r="Y85" s="3">
         <f t="shared" si="66"/>
-        <v>4270</v>
-      </c>
-      <c r="G85" s="3">
-        <f t="shared" si="66"/>
-        <v>5156</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="66"/>
-        <v>9123</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="66"/>
-        <v>6856</v>
-      </c>
-      <c r="J85" s="3">
-        <f t="shared" si="66"/>
-        <v>-8996</v>
-      </c>
-      <c r="K85" s="3">
-        <f t="shared" si="66"/>
-        <v>4334</v>
-      </c>
-      <c r="U85" s="3">
-        <f t="shared" ref="U85:V85" si="67">+U69+U73</f>
-        <v>19224</v>
-      </c>
-      <c r="V85" s="3">
-        <f t="shared" si="67"/>
         <v>16996</v>
       </c>
-      <c r="W85" s="3">
-        <f>+W69+W73</f>
+      <c r="Z85" s="3">
+        <f>+Z69+Z73</f>
         <v>12139</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>108</v>
       </c>
@@ -5234,19 +5234,19 @@
         <v>16996</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" ref="G86:J86" si="68">+SUM(D85:G85)</f>
+        <f t="shared" ref="G86:J86" si="67">+SUM(D85:G85)</f>
         <v>22889</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>29202</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>25405</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>12139</v>
       </c>
       <c r="K86" s="1">
@@ -5254,10 +5254,10 @@
         <v>11317</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D90" s="2"/>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5269,8 +5269,13 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -5282,8 +5287,13 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -5295,8 +5305,13 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -5308,8 +5323,13 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -5321,8 +5341,13 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-    </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="98" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -5334,24 +5359,29 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-    </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="100" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="G101" s="33"/>
-    </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="G102" s="33"/>
-    </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G102" s="23"/>
+    </row>
+    <row r="103" spans="4:20" x14ac:dyDescent="0.2">
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:20" x14ac:dyDescent="0.2">
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:20" x14ac:dyDescent="0.2">
       <c r="G105" s="4"/>
     </row>
   </sheetData>

--- a/AXP.xlsx
+++ b/AXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6D28C3-085A-4247-BC32-31F51E520737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6006E9E-AE6A-4AE3-9651-5BE7CEE63D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
+    <workbookView xWindow="75" yWindow="195" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D16F2-F68D-4A10-B67F-2BF1BEBF6716}">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -1344,11 +1344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5B1615-EDBA-48C9-9E9C-E1C8A2B8E6E4}">
   <dimension ref="A1:EM105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1570,10 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
+      <c r="Z3" s="1">
+        <f>+SUM(G3:J3)</f>
+        <v>1764.8</v>
+      </c>
     </row>
     <row r="4" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
@@ -2078,7 +2082,7 @@
         <v>14148</v>
       </c>
       <c r="F18" s="3">
-        <f>+Y18-SUM(C18:E18)</f>
+        <f t="shared" ref="F18:F24" si="5">+Y18-SUM(C18:E18)</f>
         <v>14362</v>
       </c>
       <c r="G18" s="3">
@@ -2091,7 +2095,7 @@
         <v>15280</v>
       </c>
       <c r="J18" s="3">
-        <f>+Z18-SUM(G18:I18)</f>
+        <f t="shared" ref="J18:J24" si="6">+Z18-SUM(G18:I18)</f>
         <v>15887</v>
       </c>
       <c r="K18" s="3">
@@ -2120,63 +2124,63 @@
         <v>65017.48</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AP18" si="5">+AA18*1.07</f>
+        <f t="shared" ref="AB18:AP18" si="7">+AA18*1.07</f>
         <v>69568.703600000008</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74438.512852000014</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79649.208751640021</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85224.653364254831</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91190.379099752681</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97573.70563673538</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>104403.86503130686</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>111712.13558349836</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>119531.98507434325</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>127899.22402954729</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>136852.1697116156</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>146431.82159142871</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156682.04910282872</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>167649.79254002674</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179385.27801782862</v>
       </c>
     </row>
@@ -2194,7 +2198,7 @@
         <v>3794</v>
       </c>
       <c r="F19" s="1">
-        <f>+Y19-SUM(C19:E19)</f>
+        <f t="shared" si="5"/>
         <v>3851</v>
       </c>
       <c r="G19" s="1">
@@ -2207,7 +2211,7 @@
         <v>4168</v>
       </c>
       <c r="J19" s="1">
-        <f>+Z19-SUM(G19:I19)</f>
+        <f t="shared" si="6"/>
         <v>4430</v>
       </c>
       <c r="K19" s="1">
@@ -2236,63 +2240,63 @@
         <v>17926.920000000002</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AP19" si="6">+AA19*1.08</f>
+        <f t="shared" ref="AB19:AP19" si="8">+AA19*1.08</f>
         <v>19361.073600000003</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20909.959488000004</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22582.756247040004</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24389.376746803206</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26340.526886547465</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28447.769037471262</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30723.590560468965</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33181.477805306487</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35835.99602973101</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>38702.875712109497</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41799.105769078262</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45143.034230604528</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48754.476969052892</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52654.835126577127</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56867.221936703303</v>
       </c>
     </row>
@@ -2310,7 +2314,7 @@
         <v>1393</v>
       </c>
       <c r="F20" s="1">
-        <f>+Y20-SUM(C20:E20)</f>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="G20" s="1">
@@ -2323,7 +2327,7 @@
         <v>1430</v>
       </c>
       <c r="J20" s="1">
-        <f>+Z20-SUM(G20:I20)</f>
+        <f t="shared" si="6"/>
         <v>1637</v>
       </c>
       <c r="K20" s="1">
@@ -2352,63 +2356,63 @@
         <v>6121.4400000000005</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" ref="AB20:AP20" si="7">+AA20*1.03</f>
+        <f t="shared" ref="AB20:AP20" si="9">+AA20*1.03</f>
         <v>6305.0832000000009</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6494.2356960000016</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6689.0627668800016</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6889.7346498864017</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7096.4266893829936</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7309.3194900644839</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7528.5990747664191</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7754.4570470094122</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7987.0907584196948</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8226.703481172286</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8473.5045856074557</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8727.7097231756798</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8989.5410148709507</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9259.227245317079</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9537.0040626765913</v>
       </c>
     </row>
@@ -2426,7 +2430,7 @@
         <v>973</v>
       </c>
       <c r="F21" s="1">
-        <f>+Y21-SUM(C21:E21)</f>
+        <f t="shared" si="5"/>
         <v>1063</v>
       </c>
       <c r="G21" s="1">
@@ -2439,7 +2443,7 @@
         <v>1179</v>
       </c>
       <c r="J21" s="1">
-        <f>+Z21-SUM(G21:I21)</f>
+        <f t="shared" si="6"/>
         <v>1278</v>
       </c>
       <c r="K21" s="1">
@@ -2468,63 +2472,63 @@
         <v>5451.48</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" ref="AB21:AP21" si="8">+AA21*1.12</f>
+        <f t="shared" ref="AB21:AP21" si="10">+AA21*1.12</f>
         <v>6105.6576000000005</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6838.3365120000008</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7658.9368934400018</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8578.0093206528036</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9607.3704391311403</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10760.254891826879</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12051.485478846105</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13497.663736307639</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15117.383384664558</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16931.469390824306</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18963.245717723225</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21238.835203850012</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23787.495428312017</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26641.994879709462</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29839.0342652746</v>
       </c>
     </row>
@@ -2542,7 +2546,7 @@
         <v>1236</v>
       </c>
       <c r="F22" s="1">
-        <f>+Y22-SUM(C22:E22)</f>
+        <f t="shared" si="5"/>
         <v>1228</v>
       </c>
       <c r="G22" s="1">
@@ -2555,7 +2559,7 @@
         <v>1470</v>
       </c>
       <c r="J22" s="1">
-        <f>+Z22-SUM(G22:I22)</f>
+        <f t="shared" si="6"/>
         <v>1614</v>
       </c>
       <c r="K22" s="1">
@@ -2584,63 +2588,63 @@
         <v>6221.2</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" ref="AB22:AP22" si="9">+AA22*1.02</f>
+        <f t="shared" ref="AB22:AP22" si="11">+AA22*1.02</f>
         <v>6345.6239999999998</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6472.5364799999998</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6601.9872095999999</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6734.0269537920003</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6868.7074928678403</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7006.0816427251975</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7146.2032755797018</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7289.1273410912963</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7434.9098879131225</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7583.6080856713852</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7735.2802473848133</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7889.9858523325092</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8047.7855693791598</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8208.7412807667424</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8372.9161063820775</v>
       </c>
     </row>
@@ -2658,7 +2662,7 @@
         <v>2047</v>
       </c>
       <c r="F23" s="1">
-        <f>+Y23-SUM(C23:E23)</f>
+        <f t="shared" si="5"/>
         <v>2131</v>
       </c>
       <c r="G23" s="1">
@@ -2671,7 +2675,7 @@
         <v>2049</v>
       </c>
       <c r="J23" s="1">
-        <f>+Z23-SUM(G23:I23)</f>
+        <f t="shared" si="6"/>
         <v>2102</v>
       </c>
       <c r="K23" s="1">
@@ -2700,63 +2704,63 @@
         <v>8689.880000000001</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" ref="AB23:AP23" si="10">+AA23*1.05</f>
+        <f t="shared" ref="AB23:AP23" si="12">+AA23*1.05</f>
         <v>9124.3740000000016</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9580.5927000000029</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10059.622335000004</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10562.603451750005</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11090.733624337505</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11645.270305554381</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12227.533820832101</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12838.910511873706</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13480.856037467393</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14154.898839340764</v>
       </c>
       <c r="AL23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14862.643781307803</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15605.775970373194</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16386.064768891854</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17205.368007336448</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18065.63640770327</v>
       </c>
     </row>
@@ -2774,7 +2778,7 @@
         <v>1605</v>
       </c>
       <c r="F24" s="1">
-        <f>+Y24-SUM(C24:E24)</f>
+        <f t="shared" si="5"/>
         <v>2094</v>
       </c>
       <c r="G24" s="1">
@@ -2787,7 +2791,7 @@
         <v>1780</v>
       </c>
       <c r="J24" s="1">
-        <f>+Z24-SUM(G24:I24)</f>
+        <f t="shared" si="6"/>
         <v>2070</v>
       </c>
       <c r="K24" s="1">
@@ -2816,63 +2820,63 @@
         <v>6427.64</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" ref="AB24:AP24" si="11">+AA24*1.01</f>
+        <f t="shared" ref="AB24:AP24" si="13">+AA24*1.01</f>
         <v>6491.9164000000001</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6556.835564</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6622.4039196399999</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6688.6279588363996</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6755.5142384247638</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6823.0693808090118</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6891.3000746171019</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6960.2130753632728</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7029.8152061169058</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7100.113358178075</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7171.1144917598558</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7242.825636677454</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7315.2538930442288</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7388.4064319746712</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7462.2904962944176</v>
       </c>
     </row>
@@ -2881,39 +2885,39 @@
         <v>31</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:K25" si="12">+SUM(C19:C24)</f>
+        <f t="shared" ref="C25:K25" si="14">+SUM(C19:C24)</f>
         <v>11059</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11122</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11048</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10850</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11387</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11275</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12076</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13131</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12487</v>
       </c>
       <c r="U25" s="1">
@@ -2921,19 +2925,19 @@
         <v>31554</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ref="V25:Y25" si="13">+SUM(V19:V24)</f>
+        <f t="shared" ref="V25:Y25" si="15">+SUM(V19:V24)</f>
         <v>27061</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33110</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41095</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44079</v>
       </c>
       <c r="Z25" s="1">
@@ -2941,67 +2945,67 @@
         <v>47869</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" ref="AA25:AP25" si="14">+SUM(AA19:AA24)</f>
+        <f t="shared" ref="AA25:AP25" si="16">+SUM(AA19:AA24)</f>
         <v>50838.559999999998</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>53733.728800000004</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56852.49644000001</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60214.769371600007</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>63842.379081720821</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>67759.2793706917</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>71991.764748451213</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>76568.712285110392</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>81521.849516951814</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>86886.051304312699</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92699.668867296306</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>99004.894592861427</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>105848.16661701338</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>113280.6176435511</v>
       </c>
       <c r="AO25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>121358.57297168153</v>
       </c>
       <c r="AP25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>130144.10327503426</v>
       </c>
     </row>
@@ -3010,67 +3014,67 @@
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26" si="15">+C18-C25</f>
+        <f t="shared" ref="C26" si="17">+C18-C25</f>
         <v>2167</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:E26" si="16">+D18-D25</f>
+        <f t="shared" ref="D26:E26" si="18">+D18-D25</f>
         <v>2734</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3100</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ref="F26" si="17">+F18-F25</f>
+        <f t="shared" ref="F26" si="19">+F18-F25</f>
         <v>3512</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:H26" si="18">+G18-G25</f>
+        <f t="shared" ref="G26:H26" si="20">+G18-G25</f>
         <v>3145</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3790</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" ref="I26:J26" si="19">+I18-I25</f>
+        <f t="shared" ref="I26:J26" si="21">+I18-I25</f>
         <v>3204</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2756</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26" si="20">+K18-K25</f>
+        <f t="shared" ref="K26" si="22">+K18-K25</f>
         <v>3330</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" ref="U26:AP26" si="21">+U18-U25</f>
+        <f t="shared" ref="U26:AP26" si="23">+U18-U25</f>
         <v>8429</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4296</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10689</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9585</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11513</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12895</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14178.920000000006</v>
       </c>
       <c r="AB26" s="3">
@@ -3078,59 +3082,59 @@
         <v>15834.974800000004</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17586.016412000004</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>19434.439380040014</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>21382.27428253401</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23431.099729060981</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25581.940888284167</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>27835.152746196472</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>30190.286066546541</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32645.933770030548</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>35199.555162250981</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>37847.275118754173</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40583.654974415331</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>43401.431459277621</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>46291.219568345216</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>49241.174742794363</v>
       </c>
     </row>
@@ -3190,63 +3194,63 @@
         <v>2835.7840000000015</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" ref="AB27:AP27" si="22">+AB26*0.2</f>
+        <f t="shared" ref="AB27:AP27" si="24">+AB26*0.2</f>
         <v>3166.9949600000009</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3517.2032824000012</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3886.8878760080029</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4276.4548565068026</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4686.2199458121968</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5116.3881776568342</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5567.0305492392945</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6038.0572133093083</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6529.1867540061103</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7039.9110324501962</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7569.4550237508347</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8116.7309948830662</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8680.2862918555238</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9258.2439136690427</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9848.2349485588729</v>
       </c>
     </row>
@@ -3255,531 +3259,531 @@
         <v>29</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="23">+C26-C27</f>
+        <f t="shared" ref="C28" si="25">+C26-C27</f>
         <v>1816</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:F28" si="24">+D26-D27</f>
+        <f t="shared" ref="D28:F28" si="26">+D26-D27</f>
         <v>2174</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2451</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2933</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:H28" si="25">+G26-G27</f>
+        <f t="shared" ref="G28:H28" si="27">+G26-G27</f>
         <v>2437</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3015</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:J28" si="26">+I26-I27</f>
+        <f t="shared" ref="I28:J28" si="28">+I26-I27</f>
         <v>2507</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28" si="27">+K26-K27</f>
+        <f t="shared" ref="K28" si="29">+K26-K27</f>
         <v>2584</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" ref="U28:AP28" si="28">+U26-U27</f>
+        <f t="shared" ref="U28:AP28" si="30">+U26-U27</f>
         <v>6759</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3135</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8060</v>
       </c>
       <c r="X28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7514</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9374</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10129</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11343.136000000004</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12667.979840000004</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>14068.813129600003</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>15547.551504032012</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>17105.819426027207</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>18744.879783248783</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>20465.552710627333</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22268.122196957178</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>24152.228853237233</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>26116.747016024437</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>28159.644129800785</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>30277.820095003339</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>32466.923979532265</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>34721.145167422095</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>37032.975654676171</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>39392.939794235492</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28:BV28" si="29">+AP28*(1+$AS$32)</f>
+        <f t="shared" ref="AQ28:BV28" si="31">+AP28*(1+$AS$32)</f>
         <v>38999.010396293139</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>38609.020292330206</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>38222.930089406902</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37840.700788512833</v>
       </c>
       <c r="AU28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37462.293780627704</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37087.670842821426</v>
       </c>
       <c r="AW28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>36716.794134393211</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>36349.626193049276</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35986.129931118783</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35626.268631807594</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35270.005945489516</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34917.305886034621</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34568.132827174275</v>
       </c>
       <c r="BD28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34222.451498902534</v>
       </c>
       <c r="BE28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33880.226983913512</v>
       </c>
       <c r="BF28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33541.424714074376</v>
       </c>
       <c r="BG28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33206.010466933629</v>
       </c>
       <c r="BH28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32873.950362264295</v>
       </c>
       <c r="BI28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32545.210858641651</v>
       </c>
       <c r="BJ28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32219.758750055233</v>
       </c>
       <c r="BK28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31897.561162554681</v>
       </c>
       <c r="BL28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31578.585550929132</v>
       </c>
       <c r="BM28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31262.799695419842</v>
       </c>
       <c r="BN28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30950.171698465645</v>
       </c>
       <c r="BO28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30640.669981480987</v>
       </c>
       <c r="BP28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30334.263281666175</v>
       </c>
       <c r="BQ28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30030.920648849515</v>
       </c>
       <c r="BR28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29730.61144236102</v>
       </c>
       <c r="BS28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29433.305327937411</v>
       </c>
       <c r="BT28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29138.972274658037</v>
       </c>
       <c r="BU28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>28847.582551911455</v>
       </c>
       <c r="BV28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>28559.10672639234</v>
       </c>
       <c r="BW28" s="3">
-        <f t="shared" ref="BW28:DB28" si="30">+BV28*(1+$AS$32)</f>
+        <f t="shared" ref="BW28:DB28" si="32">+BV28*(1+$AS$32)</f>
         <v>28273.515659128418</v>
       </c>
       <c r="BX28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27990.780502537134</v>
       </c>
       <c r="BY28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27710.872697511764</v>
       </c>
       <c r="BZ28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27433.763970536646</v>
       </c>
       <c r="CA28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27159.42633083128</v>
       </c>
       <c r="CB28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26887.832067522966</v>
       </c>
       <c r="CC28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26618.953746847736</v>
       </c>
       <c r="CD28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26352.764209379256</v>
       </c>
       <c r="CE28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26089.236567285465</v>
       </c>
       <c r="CF28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25828.34420161261</v>
       </c>
       <c r="CG28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25570.060759596483</v>
       </c>
       <c r="CH28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25314.360152000518</v>
       </c>
       <c r="CI28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25061.216550480513</v>
       </c>
       <c r="CJ28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24810.604384975708</v>
       </c>
       <c r="CK28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24562.498341125949</v>
       </c>
       <c r="CL28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24316.873357714689</v>
       </c>
       <c r="CM28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24073.704624137543</v>
       </c>
       <c r="CN28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>23832.967577896168</v>
       </c>
       <c r="CO28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>23594.637902117207</v>
       </c>
       <c r="CP28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>23358.691523096033</v>
       </c>
       <c r="CQ28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>23125.104607865072</v>
       </c>
       <c r="CR28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22893.853561786422</v>
       </c>
       <c r="CS28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22664.915026168557</v>
       </c>
       <c r="CT28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22438.265875906873</v>
       </c>
       <c r="CU28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22213.883217147802</v>
       </c>
       <c r="CV28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21991.744384976326</v>
       </c>
       <c r="CW28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21771.826941126561</v>
       </c>
       <c r="CX28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21554.108671715294</v>
       </c>
       <c r="CY28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21338.567584998142</v>
       </c>
       <c r="CZ28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21125.181909148159</v>
       </c>
       <c r="DA28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>20913.930090056678</v>
       </c>
       <c r="DB28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>20704.790789156112</v>
       </c>
       <c r="DC28" s="3">
-        <f t="shared" ref="DC28:EM28" si="31">+DB28*(1+$AS$32)</f>
+        <f t="shared" ref="DC28:EM28" si="33">+DB28*(1+$AS$32)</f>
         <v>20497.742881264552</v>
       </c>
       <c r="DD28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20292.765452451906</v>
       </c>
       <c r="DE28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20089.837797927386</v>
       </c>
       <c r="DF28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19888.939419948114</v>
       </c>
       <c r="DG28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19690.050025748631</v>
       </c>
       <c r="DH28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19493.149525491146</v>
       </c>
       <c r="DI28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19298.218030236236</v>
       </c>
       <c r="DJ28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19105.235849933873</v>
       </c>
       <c r="DK28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18914.183491434535</v>
       </c>
       <c r="DL28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18725.041656520189</v>
       </c>
       <c r="DM28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18537.791239954986</v>
       </c>
       <c r="DN28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18352.413327555438</v>
       </c>
       <c r="DO28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18168.889194279884</v>
       </c>
       <c r="DP28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17987.200302337085</v>
       </c>
       <c r="DQ28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17807.328299313715</v>
       </c>
       <c r="DR28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17629.255016320578</v>
       </c>
       <c r="DS28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17452.962466157373</v>
       </c>
       <c r="DT28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17278.4328414958</v>
       </c>
       <c r="DU28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17105.648513080843</v>
       </c>
       <c r="DV28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16934.592027950035</v>
       </c>
       <c r="DW28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16765.246107670533</v>
       </c>
       <c r="DX28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16597.593646593828</v>
       </c>
       <c r="DY28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16431.617710127892</v>
       </c>
       <c r="DZ28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16267.301533026613</v>
       </c>
       <c r="EA28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16104.628517696347</v>
       </c>
       <c r="EB28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15943.582232519382</v>
       </c>
       <c r="EC28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15784.146410194187</v>
       </c>
       <c r="ED28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15626.304946092245</v>
       </c>
       <c r="EE28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15470.041896631323</v>
       </c>
       <c r="EF28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15315.34147766501</v>
       </c>
       <c r="EG28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15162.188062888359</v>
       </c>
       <c r="EH28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15010.566182259476</v>
       </c>
       <c r="EI28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14860.46052043688</v>
       </c>
       <c r="EJ28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14711.855915232511</v>
       </c>
       <c r="EK28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14564.737356080186</v>
       </c>
       <c r="EL28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14419.089982519385</v>
       </c>
       <c r="EM28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14274.89908269419</v>
       </c>
     </row>
@@ -3788,67 +3792,67 @@
         <v>28</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29" si="32">+C28/C30</f>
+        <f t="shared" ref="C29" si="34">+C28/C30</f>
         <v>2.4408602150537635</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:F29" si="33">+D28/D30</f>
+        <f t="shared" ref="D29:F29" si="35">+D28/D30</f>
         <v>2.9338731443994601</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.3437926330150067</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.0399449035812669</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29:H29" si="34">+G28/G30</f>
+        <f t="shared" ref="G29:H29" si="36">+G28/G30</f>
         <v>3.3753462603878117</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.2050209205020916</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:J29" si="35">+I28/I30</f>
+        <f t="shared" ref="I29:J29" si="37">+I28/I30</f>
         <v>3.535966149506347</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.0823863636363638</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29" si="36">+K28/K30</f>
+        <f t="shared" ref="K29" si="38">+K28/K30</f>
         <v>3.6809116809116809</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:Z29" si="37">+U28/U30</f>
+        <f t="shared" ref="U29:Z29" si="39">+U28/U30</f>
         <v>8.1433734939759042</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.8895781637717119</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.20253164556962</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.9920212765957448</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12.736413043478262</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14.20617110799439</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" ref="AA29" si="38">+AA28/AA30</f>
+        <f t="shared" ref="AA29" si="40">+AA28/AA30</f>
         <v>15.909026647966344</v>
       </c>
     </row>
@@ -3912,127 +3916,127 @@
         <v>26</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32" si="39">+C26/C18</f>
+        <f t="shared" ref="C32" si="41">+C26/C18</f>
         <v>0.16384394374716468</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:E32" si="40">+D26/D18</f>
+        <f t="shared" ref="D32:E32" si="42">+D26/D18</f>
         <v>0.19731524249422633</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.21911224201300536</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" ref="F32" si="41">+F26/F18</f>
+        <f t="shared" ref="F32" si="43">+F26/F18</f>
         <v>0.24453418743907535</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" ref="G32:H32" si="42">+G26/G18</f>
+        <f t="shared" ref="G32:H32" si="44">+G26/G18</f>
         <v>0.21641893751720342</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.25157650182542318</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32:J32" si="43">+I26/I18</f>
+        <f t="shared" ref="I32:J32" si="45">+I26/I18</f>
         <v>0.20968586387434554</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.17347516837666016</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" ref="K32" si="44">+K26/K18</f>
+        <f t="shared" ref="K32" si="46">+K26/K18</f>
         <v>0.21053297085414427</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" ref="U32:AP32" si="45">+U26/U18</f>
+        <f t="shared" ref="U32:AP32" si="47">+U26/U18</f>
         <v>0.21081459620338644</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.13700290206333515</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.24404666773214001</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.18912786108918705</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.20709814361778672</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.21221446909354222</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.21807858440530153</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.227616355927035</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.23624889507081956</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.24400040734415768</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.25089306249384202</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.2569470591127801</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.26218068404130446</v>
       </c>
       <c r="AH32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.26661036675078781</v>
       </c>
       <c r="AI32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.2702507288832649</v>
       </c>
       <c r="AJ32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.27311462910723283</v>
       </c>
       <c r="AK32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.2752132034367869</v>
       </c>
       <c r="AL32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.27655590114872552</v>
       </c>
       <c r="AM32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.27715051642020183</v>
       </c>
       <c r="AN32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.2770032157978336</v>
       </c>
       <c r="AO32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.2761185615979399</v>
       </c>
       <c r="AP32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.27449953132664773</v>
       </c>
       <c r="AR32" s="1" t="s">
@@ -4047,127 +4051,127 @@
         <v>25</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="46">+C28/C18</f>
+        <f t="shared" ref="C33" si="48">+C28/C18</f>
         <v>0.13730530772720398</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:E33" si="47">+D28/D18</f>
+        <f t="shared" ref="D33:E33" si="49">+D28/D18</f>
         <v>0.15689953810623555</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.17324003392705684</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" ref="F33" si="48">+F28/F18</f>
+        <f t="shared" ref="F33" si="50">+F28/F18</f>
         <v>0.20421946804066285</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:H33" si="49">+G28/G18</f>
+        <f t="shared" ref="G33:H33" si="51">+G28/G18</f>
         <v>0.16769887145609688</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.20013275804845668</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33:J33" si="50">+I28/I18</f>
+        <f t="shared" ref="I33:J33" si="52">+I28/I18</f>
         <v>0.16407068062827226</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.13658966450557058</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="51">+K28/K18</f>
+        <f t="shared" ref="K33" si="53">+K28/K18</f>
         <v>0.16336852753366632</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" ref="U33:AP33" si="52">+U28/U18</f>
+        <f t="shared" ref="U33:AP33" si="54">+U28/U18</f>
         <v>0.16904684490908636</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9977676435883539E-2</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.1840224662663531</v>
       </c>
       <c r="X33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.14826361483820047</v>
       </c>
       <c r="Y33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.16862138437185206</v>
       </c>
       <c r="Z33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.16669409518794023</v>
       </c>
       <c r="AA33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.17446286752424123</v>
       </c>
       <c r="AB33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.18209308474162803</v>
       </c>
       <c r="AC33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.18899911605665565</v>
       </c>
       <c r="AD33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.19520032587532615</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.2007144499950736</v>
       </c>
       <c r="AF33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.20555764729022408</v>
       </c>
       <c r="AG33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.20974454723304356</v>
       </c>
       <c r="AH33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.21328829340063024</v>
       </c>
       <c r="AI33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.21620058310661192</v>
       </c>
       <c r="AJ33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.21849170328578627</v>
       </c>
       <c r="AK33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.22017056274942953</v>
       </c>
       <c r="AL33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.22124472091898043</v>
       </c>
       <c r="AM33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.22172041313616148</v>
       </c>
       <c r="AN33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.22160257263826685</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.2208948492783519</v>
       </c>
       <c r="AP33" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.21959962506131819</v>
       </c>
       <c r="AR33" s="1" t="s">
@@ -4182,127 +4186,127 @@
         <v>24</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ref="C34" si="53">+C27/C26</f>
+        <f t="shared" ref="C34" si="55">+C27/C26</f>
         <v>0.16197508075680664</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:E34" si="54">+D27/D26</f>
+        <f t="shared" ref="D34:E34" si="56">+D27/D26</f>
         <v>0.20482809070958302</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.20935483870967742</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34" si="55">+F27/F26</f>
+        <f t="shared" ref="F34" si="57">+F27/F26</f>
         <v>0.16486332574031889</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:H34" si="56">+G27/G26</f>
+        <f t="shared" ref="G34:H34" si="58">+G27/G26</f>
         <v>0.22511923688394275</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.20448548812664907</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:J34" si="57">+I27/I26</f>
+        <f t="shared" ref="I34:J34" si="59">+I27/I26</f>
         <v>0.21754057428214732</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.21262699564586357</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" ref="K34" si="58">+K27/K26</f>
+        <f t="shared" ref="K34" si="60">+K27/K26</f>
         <v>0.22402402402402402</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:AP34" si="59">+U27/U26</f>
+        <f t="shared" ref="U34:AP34" si="61">+U27/U26</f>
         <v>0.19812551904140469</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.27025139664804471</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.24595378426419684</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.21606677099634847</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.1857899765482498</v>
       </c>
       <c r="Z34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.21450174486234974</v>
       </c>
       <c r="AA34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AB34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AC34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AD34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AE34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AF34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AG34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AH34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AI34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AJ34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AK34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AL34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AM34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AN34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AO34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AP34" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="AR34" s="1" t="s">
@@ -4351,19 +4355,19 @@
         <v>#REF!</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" ref="V36:Y36" si="60">+V16/U16-1</f>
+        <f t="shared" ref="V36:Y36" si="62">+V16/U16-1</f>
         <v>-1.8077413866439795E-2</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>-5.4299328568334415E-2</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.27396193573506178</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.21103820224719105</v>
       </c>
       <c r="Z36" s="6">
@@ -4371,67 +4375,67 @@
         <v>0.10149337925301349</v>
       </c>
       <c r="AA36" s="6">
-        <f t="shared" ref="AA36:AP36" si="61">+AA18/Z18-1</f>
+        <f t="shared" ref="AA36:AP36" si="63">+AA18/Z18-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AB36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AC36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AI36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AJ36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AK36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AL36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AM36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AO36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AP36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AR36" s="4" t="s">
@@ -4494,55 +4498,55 @@
         <v>17</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40:K40" si="62">+E38+E39</f>
+        <f t="shared" ref="E40:K40" si="64">+E38+E39</f>
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40:Z40" si="63">+U38+U39</f>
+        <f t="shared" ref="U40:Z40" si="65">+U38+U39</f>
         <v>11987</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>4113</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>13095</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>19224</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>16996</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>12139</v>
       </c>
     </row>
@@ -4596,67 +4600,67 @@
         <v>-9209</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" ref="AA46:AP46" si="64">+Z46+AA28</f>
+        <f t="shared" ref="AA46:AP46" si="66">+Z46+AA28</f>
         <v>2134.1360000000041</v>
       </c>
       <c r="AB46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14802.115840000008</v>
       </c>
       <c r="AC46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>28870.928969600012</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>44418.480473632022</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>61524.299899659229</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>80269.179682908012</v>
       </c>
       <c r="AG46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100734.73239353535</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>123002.85459049253</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>147155.08344372976</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>173271.83045975419</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>201431.47458955497</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>231709.29468455832</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>264176.21866409061</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>298897.36383151269</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>335930.33948618884</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>375323.27928042435</v>
       </c>
     </row>
@@ -5185,39 +5189,39 @@
         <v>2810</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" ref="E85:K85" si="65">+E69+E73</f>
+        <f t="shared" ref="E85:K85" si="67">+E69+E73</f>
         <v>10653</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4270</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5156</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9123</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6856</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-8996</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4334</v>
       </c>
       <c r="X85" s="3">
-        <f t="shared" ref="X85:Y85" si="66">+X69+X73</f>
+        <f t="shared" ref="X85:Y85" si="68">+X69+X73</f>
         <v>19224</v>
       </c>
       <c r="Y85" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16996</v>
       </c>
       <c r="Z85" s="3">
@@ -5234,19 +5238,19 @@
         <v>16996</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" ref="G86:J86" si="67">+SUM(D85:G85)</f>
+        <f t="shared" ref="G86:J86" si="69">+SUM(D85:G85)</f>
         <v>22889</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>29202</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>25405</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>12139</v>
       </c>
       <c r="K86" s="1">

--- a/AXP.xlsx
+++ b/AXP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6006E9E-AE6A-4AE3-9651-5BE7CEE63D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D5DC8-01A3-4157-BCB5-5462ACF857AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="195" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FC12929-E7A8-4756-AF40-6C1DBDC0D639}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>L+S/E</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>FCF TTM</t>
+  </si>
+  <si>
+    <t>NI TTM</t>
+  </si>
+  <si>
+    <t>ROTA</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -607,7 +613,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -969,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D16F2-F68D-4A10-B67F-2BF1BEBF6716}">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,13 +1348,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5B1615-EDBA-48C9-9E9C-E1C8A2B8E6E4}">
-  <dimension ref="A1:EM105"/>
+  <dimension ref="A1:EM108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4864,474 +4870,446 @@
         <v>271461</v>
       </c>
     </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1">
+        <f>+SUM(H28:K28)</f>
+        <v>10276</v>
+      </c>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K62" s="4">
+        <f>+K61/(K48+K49+K50+K51)</f>
+        <v>4.494676895891106E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G64" s="1">
         <f>+G28</f>
         <v>2437</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K64" s="1">
         <f>+K28</f>
         <v>2584</v>
       </c>
     </row>
-    <row r="62" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2437</v>
-      </c>
-      <c r="K62" s="1">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1269</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="1">
-        <v>390</v>
-      </c>
-      <c r="K64" s="1">
-        <v>433</v>
-      </c>
-    </row>
     <row r="65" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G65" s="1">
-        <v>176</v>
+        <v>2437</v>
       </c>
       <c r="K65" s="1">
-        <v>158</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="66" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G66" s="1">
-        <v>-134</v>
+        <v>1269</v>
       </c>
       <c r="K66" s="1">
-        <v>-20</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="67" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G67" s="1">
-        <v>-193</v>
+        <v>390</v>
       </c>
       <c r="K67" s="1">
-        <v>213</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="1">
+        <v>176</v>
+      </c>
+      <c r="K68" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-134</v>
+      </c>
+      <c r="K69" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-193</v>
+      </c>
+      <c r="K70" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G71" s="1">
         <f>195+1412</f>
         <v>1607</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K71" s="1">
         <f>18+228</f>
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C72" s="3">
         <v>-377</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D72" s="3">
         <v>3546</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E72" s="3">
         <v>11790</v>
       </c>
-      <c r="F69" s="3">
-        <f>+Y69-SUM(C69:E69)</f>
+      <c r="F72" s="3">
+        <f>+Y72-SUM(C72:E72)</f>
         <v>3600</v>
       </c>
-      <c r="G69" s="3">
-        <f>+SUM(G62:G68)</f>
+      <c r="G72" s="3">
+        <f>+SUM(G65:G71)</f>
         <v>5552</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H72" s="3">
         <v>10084</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I72" s="3">
         <v>8272</v>
       </c>
-      <c r="J69" s="3">
-        <f>+Z69-SUM(G69:I69)</f>
+      <c r="J72" s="3">
+        <f>+Z72-SUM(G72:I72)</f>
         <v>-9858</v>
       </c>
-      <c r="K69" s="3">
-        <f>+SUM(K62:K68)</f>
+      <c r="K72" s="3">
+        <f>+SUM(K65:K71)</f>
         <v>4764</v>
       </c>
-      <c r="X69" s="3">
+      <c r="X72" s="3">
         <v>21079</v>
       </c>
-      <c r="Y69" s="3">
+      <c r="Y72" s="3">
         <v>18559</v>
       </c>
-      <c r="Z69" s="3">
+      <c r="Z72" s="3">
         <v>14050</v>
       </c>
     </row>
-    <row r="71" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="74" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G74" s="1">
         <f>2+282-407</f>
         <v>-123</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K74" s="1">
         <f>285-239</f>
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="75" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G75" s="1">
         <v>-2625</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K75" s="1">
         <v>835</v>
       </c>
     </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C76" s="3">
         <v>-360</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D76" s="3">
         <v>-736</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E76" s="3">
         <v>-1137</v>
       </c>
-      <c r="F73" s="3">
-        <f>+Y73-SUM(C73:E73)</f>
+      <c r="F76" s="3">
+        <f>+Y76-SUM(C76:E76)</f>
         <v>670</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G76" s="3">
         <v>-396</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H76" s="3">
         <v>-961</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I76" s="3">
         <v>-1416</v>
       </c>
-      <c r="J73" s="3">
-        <f>+Z73-SUM(G73:I73)</f>
+      <c r="J76" s="3">
+        <f>+Z76-SUM(G76:I76)</f>
         <v>862</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K76" s="3">
         <v>-430</v>
       </c>
-      <c r="X73" s="3">
+      <c r="X76" s="3">
         <v>-1855</v>
       </c>
-      <c r="Y73" s="3">
+      <c r="Y76" s="3">
         <v>-1563</v>
       </c>
-      <c r="Z73" s="3">
+      <c r="Z76" s="3">
         <v>-1911</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G74" s="1">
-        <f>+SUM(G71:G73)</f>
-        <v>-3144</v>
-      </c>
-      <c r="K74" s="1">
-        <f>+SUM(K71:K73)</f>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="1">
-        <v>5283</v>
-      </c>
-      <c r="K76" s="1">
-        <v>6973</v>
       </c>
     </row>
     <row r="77" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" s="1">
+        <f>+SUM(G74:G76)</f>
+        <v>-3144</v>
+      </c>
+      <c r="K77" s="1">
+        <f>+SUM(K74:K76)</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="1">
+        <v>5283</v>
+      </c>
+      <c r="K79" s="1">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G80" s="1">
         <f>518+2345-1250</f>
         <v>1613</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K80" s="1">
         <f>131+4768-3534</f>
         <v>1365</v>
       </c>
     </row>
-    <row r="78" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="1">
-        <v>29</v>
-      </c>
-      <c r="K78" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" s="1">
-        <v>-1292</v>
-      </c>
-      <c r="K79" s="1">
-        <v>-1208</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G80" s="1">
-        <v>-452</v>
-      </c>
-      <c r="K80" s="1">
-        <v>-509</v>
-      </c>
-    </row>
     <row r="81" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="1">
+        <v>29</v>
+      </c>
+      <c r="K81" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-1292</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-1208</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-452</v>
+      </c>
+      <c r="K83" s="1">
+        <v>-509</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G81" s="1">
-        <f>+SUM(G76:G80)</f>
+      <c r="G84" s="1">
+        <f>+SUM(G79:G83)</f>
         <v>5181</v>
       </c>
-      <c r="K81" s="1">
-        <f>+SUM(K76:K80)</f>
+      <c r="K84" s="1">
+        <f>+SUM(K79:K83)</f>
         <v>6643</v>
       </c>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G85" s="1">
         <v>28</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K85" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G83" s="1">
-        <f>+G69+G74+G81+G82</f>
+      <c r="G86" s="1">
+        <f>+G72+G77+G84+G85</f>
         <v>7617</v>
       </c>
-      <c r="K83" s="1">
-        <f>+K69+K74+K81+K82</f>
+      <c r="K86" s="1">
+        <f>+K72+K77+K84+K85</f>
         <v>11868</v>
       </c>
     </row>
-    <row r="85" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="88" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="3">
-        <f>+C69+C73</f>
+      <c r="C88" s="3">
+        <f>+C72+C76</f>
         <v>-737</v>
       </c>
-      <c r="D85" s="3">
-        <f>+D69+D73</f>
+      <c r="D88" s="3">
+        <f>+D72+D76</f>
         <v>2810</v>
       </c>
-      <c r="E85" s="3">
-        <f t="shared" ref="E85:K85" si="67">+E69+E73</f>
+      <c r="E88" s="3">
+        <f t="shared" ref="E88:K88" si="67">+E72+E76</f>
         <v>10653</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F88" s="3">
         <f t="shared" si="67"/>
         <v>4270</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G88" s="3">
         <f t="shared" si="67"/>
         <v>5156</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H88" s="3">
         <f t="shared" si="67"/>
         <v>9123</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I88" s="3">
         <f t="shared" si="67"/>
         <v>6856</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J88" s="3">
         <f t="shared" si="67"/>
         <v>-8996</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K88" s="3">
         <f t="shared" si="67"/>
         <v>4334</v>
       </c>
-      <c r="X85" s="3">
-        <f t="shared" ref="X85:Y85" si="68">+X69+X73</f>
+      <c r="X88" s="3">
+        <f t="shared" ref="X88:Y88" si="68">+X72+X76</f>
         <v>19224</v>
       </c>
-      <c r="Y85" s="3">
+      <c r="Y88" s="3">
         <f t="shared" si="68"/>
         <v>16996</v>
       </c>
-      <c r="Z85" s="3">
-        <f>+Z69+Z73</f>
+      <c r="Z88" s="3">
+        <f>+Z72+Z76</f>
         <v>12139</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="1">
-        <f>+SUM(C85:F85)</f>
+      <c r="F89" s="1">
+        <f>+SUM(C88:F88)</f>
         <v>16996</v>
       </c>
-      <c r="G86" s="1">
-        <f t="shared" ref="G86:J86" si="69">+SUM(D85:G85)</f>
+      <c r="G89" s="1">
+        <f t="shared" ref="G89:J89" si="69">+SUM(D88:G88)</f>
         <v>22889</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H89" s="1">
         <f t="shared" si="69"/>
         <v>29202</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I89" s="1">
         <f t="shared" si="69"/>
         <v>25405</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J89" s="1">
         <f t="shared" si="69"/>
         <v>12139</v>
       </c>
-      <c r="K86" s="1">
-        <f>+SUM(H85:K85)</f>
+      <c r="K89" s="1">
+        <f>+SUM(H88:K88)</f>
         <v>11317</v>
       </c>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-    </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E96" s="5"/>
@@ -5351,42 +5329,96 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
     </row>
+    <row r="97" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+    </row>
     <row r="98" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-    </row>
-    <row r="100" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D100" s="2"/>
-      <c r="G100" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
     </row>
     <row r="101" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G101" s="23"/>
-    </row>
-    <row r="102" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G102" s="23"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G103" s="1"/>
+      <c r="D103" s="2"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G104" s="5"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G105" s="4"/>
+      <c r="G105" s="23"/>
+    </row>
+    <row r="106" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G108" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
